--- a/covid19_drdfm/data/example-output/VA/df.xlsx
+++ b/covid19_drdfm/data/example-output/VA/df.xlsx
@@ -447,22 +447,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Employment1</t>
+          <t>GDP</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Employment2</t>
+          <t>Prod</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>CPIU</t>
+          <t>UI</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>PCEC</t>
+          <t>UR</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <v>40909</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1911968455201832</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3">
@@ -488,16 +488,16 @@
         <v>40940</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8170711884503437</v>
+        <v>0.03062365867707141</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8258139200228848</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4804248097350872</v>
+        <v>0.4145354014375826</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9797476154831077</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         <v>40969</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8135122768330407</v>
+        <v>0.03104707901253794</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8239012100173577</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4783596646895119</v>
+        <v>0.4075567927771913</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9810227532710519</v>
+        <v>0.3888888888888888</v>
       </c>
     </row>
     <row r="5">
@@ -522,16 +522,16 @@
         <v>41000</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8018882440272991</v>
+        <v>0.03393197569534429</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8180161564203544</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4580164258916395</v>
+        <v>0.4053600080765794</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9802673354121212</v>
+        <v>0.3888888888888888</v>
       </c>
     </row>
     <row r="6">
@@ -539,16 +539,16 @@
         <v>41030</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8182644828456356</v>
+        <v>0.0370950989909735</v>
       </c>
       <c r="C6" t="n">
-        <v>0.819039970538338</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2823120937051792</v>
+        <v>0.4159640316286306</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9781946328218968</v>
+        <v>0.3888888888888888</v>
       </c>
     </row>
     <row r="7">
@@ -556,16 +556,16 @@
         <v>41061</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8137537407112719</v>
+        <v>0.03627913680379277</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8175601904981341</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3408982227867237</v>
+        <v>0.4263957847997222</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9782729285877159</v>
+        <v>0.3777777777777778</v>
       </c>
     </row>
     <row r="8">
@@ -573,16 +573,16 @@
         <v>41091</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8032999920192481</v>
+        <v>0.03575162416425171</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8205909698480336</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3934463727922193</v>
+        <v>0.4282758957262676</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9782685951174721</v>
+        <v>0.3666666666666667</v>
       </c>
     </row>
     <row r="9">
@@ -590,16 +590,16 @@
         <v>41122</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8069065484055066</v>
+        <v>0.03184446236278694</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8218528986159431</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6527359268372354</v>
+        <v>0.4090502372106164</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9766178983157136</v>
+        <v>0.3666666666666667</v>
       </c>
     </row>
     <row r="10">
@@ -607,16 +607,16 @@
         <v>41153</v>
       </c>
       <c r="B10" t="n">
-        <v>0.834591805387279</v>
+        <v>0.03225059939418066</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8220476470543482</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6040928049754837</v>
+        <v>0.4091861302765621</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9791251766773968</v>
+        <v>0.3555555555555555</v>
       </c>
     </row>
     <row r="11">
@@ -624,16 +624,16 @@
         <v>41183</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8210965500458856</v>
+        <v>0.02896740568441081</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8210990580937662</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D11" t="n">
-        <v>0.506728251696605</v>
+        <v>0.425183723987134</v>
       </c>
       <c r="E11" t="n">
-        <v>0.98396198687112</v>
+        <v>0.3444444444444444</v>
       </c>
     </row>
     <row r="12">
@@ -641,16 +641,16 @@
         <v>41214</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8033629658599835</v>
+        <v>0.03370759616838685</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8212544385497698</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3006557725101743</v>
+        <v>0.4276876452190457</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9784922095456062</v>
+        <v>0.3444444444444444</v>
       </c>
     </row>
     <row r="13">
@@ -658,16 +658,16 @@
         <v>41244</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8068337204551878</v>
+        <v>0.03303474297749752</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8244209083586208</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D13" t="n">
-        <v>0.37413804795302</v>
+        <v>0.4335105089266202</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9770136390526549</v>
+        <v>0.3444444444444444</v>
       </c>
     </row>
     <row r="14">
@@ -675,16 +675,16 @@
         <v>41275</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8055543580226956</v>
+        <v>0.03729212061566143</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8223316824338748</v>
+        <v>0.7644406490906059</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4730736920152049</v>
+        <v>0.4554414342371979</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9824906505822639</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="15">
@@ -692,16 +692,16 @@
         <v>41306</v>
       </c>
       <c r="B15" t="n">
-        <v>0.8095017709632395</v>
+        <v>0.03500130234050588</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8259306364023364</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6349860070635606</v>
+        <v>0.4188179938138217</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9789649499577149</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="16">
@@ -709,16 +709,16 @@
         <v>41334</v>
       </c>
       <c r="B16" t="n">
-        <v>0.805262264353838</v>
+        <v>0.04143349913297785</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8204826442824038</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2471689513070562</v>
+        <v>0.4022369488677925</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9778175006322838</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="17">
@@ -726,16 +726,16 @@
         <v>41365</v>
       </c>
       <c r="B17" t="n">
-        <v>0.8185903306715626</v>
+        <v>0.03245537853038345</v>
       </c>
       <c r="C17" t="n">
-        <v>0.822175410606488</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2813645162752761</v>
+        <v>0.40965515596984</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9772029075462043</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="18">
@@ -743,16 +743,16 @@
         <v>41395</v>
       </c>
       <c r="B18" t="n">
-        <v>0.815943793632123</v>
+        <v>0.0305845596651316</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8232958481094075</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3993518297214528</v>
+        <v>0.4162082977729967</v>
       </c>
       <c r="E18" t="n">
-        <v>0.978462438089242</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="19">
@@ -760,16 +760,16 @@
         <v>41426</v>
       </c>
       <c r="B19" t="n">
-        <v>0.8112013334931283</v>
+        <v>0.02862734399897086</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8217901061473404</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4918638127890506</v>
+        <v>0.42363132151542</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9807746156791444</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="20">
@@ -777,16 +777,16 @@
         <v>41456</v>
       </c>
       <c r="B20" t="n">
-        <v>0.8165747062094404</v>
+        <v>0.03298376089619227</v>
       </c>
       <c r="C20" t="n">
-        <v>0.819524705107271</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4719810427311055</v>
+        <v>0.4290510544531505</v>
       </c>
       <c r="E20" t="n">
-        <v>0.979262308224759</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="21">
@@ -794,16 +794,16 @@
         <v>41487</v>
       </c>
       <c r="B21" t="n">
-        <v>0.8091941800468382</v>
+        <v>0.032597437930442</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8244296392645107</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4921920362000497</v>
+        <v>0.4105339682205775</v>
       </c>
       <c r="E21" t="n">
-        <v>0.978809824789761</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="22">
@@ -811,16 +811,16 @@
         <v>41518</v>
       </c>
       <c r="B22" t="n">
-        <v>0.8102815037840168</v>
+        <v>0.03408384410078716</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8220025398786427</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3976005690238599</v>
+        <v>0.4090619912367234</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9786423571171835</v>
+        <v>0.3222222222222222</v>
       </c>
     </row>
     <row r="23">
@@ -828,16 +828,16 @@
         <v>41548</v>
       </c>
       <c r="B23" t="n">
-        <v>0.7748893508307949</v>
+        <v>0.03349723952861353</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8234365294311478</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4050553748719518</v>
+        <v>0.4405395451297687</v>
       </c>
       <c r="E23" t="n">
-        <v>0.982760952384311</v>
+        <v>0.3222222222222222</v>
       </c>
     </row>
     <row r="24">
@@ -845,16 +845,16 @@
         <v>41579</v>
       </c>
       <c r="B24" t="n">
-        <v>0.8412095355145293</v>
+        <v>0.033659248394573</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8256241022260118</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4666731454969064</v>
+        <v>0.4073594983279255</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9812503954983279</v>
+        <v>0.3111111111111111</v>
       </c>
     </row>
     <row r="25">
@@ -862,16 +862,16 @@
         <v>41609</v>
       </c>
       <c r="B25" t="n">
-        <v>0.8177730833014433</v>
+        <v>0.03309316245299262</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8167674345972542</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D25" t="n">
-        <v>0.504271433281398</v>
+        <v>0.4348282685133664</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9796268144426162</v>
+        <v>0.3111111111111111</v>
       </c>
     </row>
     <row r="26">
@@ -879,16 +879,16 @@
         <v>41640</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8203859482666936</v>
+        <v>0.02725600735895146</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8219631015294253</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.493934346505972</v>
+        <v>0.4523620424592431</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9777682868082346</v>
+        <v>0.2999999999999999</v>
       </c>
     </row>
     <row r="27">
@@ -896,16 +896,16 @@
         <v>41671</v>
       </c>
       <c r="B27" t="n">
-        <v>0.8063658967333401</v>
+        <v>0.02895886407472024</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8207960185887884</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4316850960443767</v>
+        <v>0.4179618835637149</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9765583916561276</v>
+        <v>0.2999999999999999</v>
       </c>
     </row>
     <row r="28">
@@ -913,16 +913,16 @@
         <v>41699</v>
       </c>
       <c r="B28" t="n">
-        <v>0.8254627173521412</v>
+        <v>0.02711062854789252</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8257300281421081</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4759716818008413</v>
+        <v>0.4024642953948677</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9818597384704605</v>
+        <v>0.2999999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -930,16 +930,16 @@
         <v>41730</v>
       </c>
       <c r="B29" t="n">
-        <v>0.8076266774238325</v>
+        <v>0.03497519201340208</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8270190966267184</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D29" t="n">
-        <v>0.467607911577312</v>
+        <v>0.4007100756298689</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9818450146574353</v>
+        <v>0.2999999999999999</v>
       </c>
     </row>
     <row r="30">
@@ -947,16 +947,16 @@
         <v>41760</v>
       </c>
       <c r="B30" t="n">
-        <v>0.8126222115907127</v>
+        <v>0.03523926025799354</v>
       </c>
       <c r="C30" t="n">
-        <v>0.822667647186039</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4694354679379368</v>
+        <v>0.4105874815384464</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9813103476548442</v>
+        <v>0.2888888888888889</v>
       </c>
     </row>
     <row r="31">
@@ -964,16 +964,16 @@
         <v>41791</v>
       </c>
       <c r="B31" t="n">
-        <v>0.822080809866217</v>
+        <v>0.03599485463000949</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8277647645364593</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4420601940130754</v>
+        <v>0.4222219955476978</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9787811040867067</v>
+        <v>0.2888888888888889</v>
       </c>
     </row>
     <row r="32">
@@ -981,16 +981,16 @@
         <v>41821</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8123850160291054</v>
+        <v>0.0345303628218116</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8242174934096156</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4328522352647602</v>
+        <v>0.4256456439007479</v>
       </c>
       <c r="E32" t="n">
-        <v>0.981568512407801</v>
+        <v>0.2777777777777777</v>
       </c>
     </row>
     <row r="33">
@@ -998,16 +998,16 @@
         <v>41852</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8116286777528561</v>
+        <v>0.03663982067920093</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8217938869930206</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3723022077765162</v>
+        <v>0.412451490049708</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9755787392253349</v>
+        <v>0.2777777777777777</v>
       </c>
     </row>
     <row r="34">
@@ -1015,16 +1015,16 @@
         <v>41883</v>
       </c>
       <c r="B34" t="n">
-        <v>0.8158018120719297</v>
+        <v>0.03613549442847599</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8266302034985644</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3832166305801797</v>
+        <v>0.4060230166239173</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9791237022486354</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="35">
@@ -1032,16 +1032,16 @@
         <v>41913</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8300547056264846</v>
+        <v>0.03655487142120958</v>
       </c>
       <c r="C35" t="n">
-        <v>0.824127956244755</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3705152434098531</v>
+        <v>0.4140137806440641</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9777252114392785</v>
+        <v>0.2555555555555556</v>
       </c>
     </row>
     <row r="36">
@@ -1049,16 +1049,16 @@
         <v>41944</v>
       </c>
       <c r="B36" t="n">
-        <v>0.8061260573769912</v>
+        <v>0.03721358329647202</v>
       </c>
       <c r="C36" t="n">
-        <v>0.8257594276344505</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2910385964014466</v>
+        <v>0.4301146541167876</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9784373590744389</v>
+        <v>0.2555555555555556</v>
       </c>
     </row>
     <row r="37">
@@ -1066,16 +1066,16 @@
         <v>41974</v>
       </c>
       <c r="B37" t="n">
-        <v>0.8144364776464362</v>
+        <v>0.03820277446575044</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8254627742564683</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2342588880723614</v>
+        <v>0.4336179663862678</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9778768331199639</v>
+        <v>0.2444444444444445</v>
       </c>
     </row>
     <row r="38">
@@ -1083,16 +1083,16 @@
         <v>42005</v>
       </c>
       <c r="B38" t="n">
-        <v>0.8257177919739254</v>
+        <v>0.04252317376825292</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8222752866023222</v>
+        <v>0.5528179476086801</v>
       </c>
       <c r="D38" t="n">
-        <v>0.07870096975326518</v>
+        <v>0.4502674700829145</v>
       </c>
       <c r="E38" t="n">
-        <v>0.973189625613409</v>
+        <v>0.2444444444444445</v>
       </c>
     </row>
     <row r="39">
@@ -1100,16 +1100,16 @@
         <v>42036</v>
       </c>
       <c r="B39" t="n">
-        <v>0.8034061642763356</v>
+        <v>0.03434174226233589</v>
       </c>
       <c r="C39" t="n">
-        <v>0.8250360465027927</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4991270461619542</v>
+        <v>0.4152803697957878</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9781517738182761</v>
+        <v>0.2333333333333334</v>
       </c>
     </row>
     <row r="40">
@@ -1117,16 +1117,16 @@
         <v>42064</v>
       </c>
       <c r="B40" t="n">
-        <v>0.8098794065368862</v>
+        <v>0.03397842293006671</v>
       </c>
       <c r="C40" t="n">
-        <v>0.8183126748240903</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5066174053952723</v>
+        <v>0.4068531183148272</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9803666848320294</v>
+        <v>0.2333333333333334</v>
       </c>
     </row>
     <row r="41">
@@ -1134,16 +1134,16 @@
         <v>42095</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8204703357769915</v>
+        <v>0.03795140400061227</v>
       </c>
       <c r="C41" t="n">
-        <v>0.8254374346256902</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4289422565245661</v>
+        <v>0.3848487003494845</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9809898533911975</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="42">
@@ -1151,16 +1151,16 @@
         <v>42125</v>
       </c>
       <c r="B42" t="n">
-        <v>0.8177257676594207</v>
+        <v>0.03581035434332955</v>
       </c>
       <c r="C42" t="n">
-        <v>0.8277463401846614</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5349905266530876</v>
+        <v>0.4178493927210503</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9791221375105186</v>
+        <v>0.2111111111111111</v>
       </c>
     </row>
     <row r="43">
@@ -1168,16 +1168,16 @@
         <v>42156</v>
       </c>
       <c r="B43" t="n">
-        <v>0.8069081625681082</v>
+        <v>0.03636568588964095</v>
       </c>
       <c r="C43" t="n">
-        <v>0.8206217231591978</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5101022712614719</v>
+        <v>0.428489511566028</v>
       </c>
       <c r="E43" t="n">
-        <v>0.978997543988299</v>
+        <v>0.2000000000000001</v>
       </c>
     </row>
     <row r="44">
@@ -1185,16 +1185,16 @@
         <v>42186</v>
       </c>
       <c r="B44" t="n">
-        <v>0.8074361484750139</v>
+        <v>0.0355222522910116</v>
       </c>
       <c r="C44" t="n">
-        <v>0.825997886786185</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4545412938591608</v>
+        <v>0.4261328737485427</v>
       </c>
       <c r="E44" t="n">
-        <v>0.977651602238532</v>
+        <v>0.1888888888888889</v>
       </c>
     </row>
     <row r="45">
@@ -1202,16 +1202,16 @@
         <v>42217</v>
       </c>
       <c r="B45" t="n">
-        <v>0.8192830710681206</v>
+        <v>0.03656735755130518</v>
       </c>
       <c r="C45" t="n">
-        <v>0.8200613956704663</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3796449961608567</v>
+        <v>0.4155020158574161</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9770182518838439</v>
+        <v>0.1777777777777778</v>
       </c>
     </row>
     <row r="46">
@@ -1219,16 +1219,16 @@
         <v>42248</v>
       </c>
       <c r="B46" t="n">
-        <v>0.7944628639571398</v>
+        <v>0.0384947761670606</v>
       </c>
       <c r="C46" t="n">
-        <v>0.8198242076397693</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2738033829246919</v>
+        <v>0.4061135196396551</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9793377865484874</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="47">
@@ -1236,16 +1236,16 @@
         <v>42278</v>
       </c>
       <c r="B47" t="n">
-        <v>0.8217058068666531</v>
+        <v>0.03326308231807668</v>
       </c>
       <c r="C47" t="n">
-        <v>0.8269545291609484</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4264502145385787</v>
+        <v>0.4160208787513432</v>
       </c>
       <c r="E47" t="n">
-        <v>0.974613594179923</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="48">
@@ -1253,16 +1253,16 @@
         <v>42309</v>
       </c>
       <c r="B48" t="n">
-        <v>0.8145543568902583</v>
+        <v>0.03227951134714781</v>
       </c>
       <c r="C48" t="n">
-        <v>0.8232721524409696</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4361074937639563</v>
+        <v>0.4055466490050586</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9783873368083413</v>
+        <v>0.1555555555555556</v>
       </c>
     </row>
     <row r="49">
@@ -1270,16 +1270,16 @@
         <v>42339</v>
       </c>
       <c r="B49" t="n">
-        <v>0.8301987447499016</v>
+        <v>0.03413244746429219</v>
       </c>
       <c r="C49" t="n">
-        <v>0.8251024926703656</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3291286649421136</v>
+        <v>0.460114940962437</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9767338669535904</v>
+        <v>0.1555555555555556</v>
       </c>
     </row>
     <row r="50">
@@ -1287,16 +1287,16 @@
         <v>42370</v>
       </c>
       <c r="B50" t="n">
-        <v>0.8252302269764712</v>
+        <v>0.03162754993789928</v>
       </c>
       <c r="C50" t="n">
-        <v>0.8190219459600729</v>
+        <v>0.3994742319136804</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3582333302100829</v>
+        <v>0.4595136860725234</v>
       </c>
       <c r="E50" t="n">
-        <v>0.98167363084452</v>
+        <v>0.1555555555555556</v>
       </c>
     </row>
     <row r="51">
@@ -1304,16 +1304,16 @@
         <v>42401</v>
       </c>
       <c r="B51" t="n">
-        <v>0.8168785545332913</v>
+        <v>0.03310283846401325</v>
       </c>
       <c r="C51" t="n">
-        <v>0.8227369194373043</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D51" t="n">
-        <v>0.317139331932879</v>
+        <v>0.4303554942755118</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9804857309116678</v>
+        <v>0.1444444444444444</v>
       </c>
     </row>
     <row r="52">
@@ -1321,16 +1321,16 @@
         <v>42430</v>
       </c>
       <c r="B52" t="n">
-        <v>0.8166172624762037</v>
+        <v>0.02928456788007129</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8244083425910558</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D52" t="n">
-        <v>0.527342817213182</v>
+        <v>0.4029880319149987</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9799677242166804</v>
+        <v>0.1444444444444444</v>
       </c>
     </row>
     <row r="53">
@@ -1338,16 +1338,16 @@
         <v>42461</v>
       </c>
       <c r="B53" t="n">
-        <v>0.8019526135529373</v>
+        <v>0.03319749631791253</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8218700422722833</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5600276253743403</v>
+        <v>0.4000781402039732</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9843664993593824</v>
+        <v>0.1444444444444444</v>
       </c>
     </row>
     <row r="54">
@@ -1355,16 +1355,16 @@
         <v>42491</v>
       </c>
       <c r="B54" t="n">
-        <v>0.8089540979698909</v>
+        <v>0.03554500960151944</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8163254740842698</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4911291353516724</v>
+        <v>0.4178059022355854</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9803337721967778</v>
+        <v>0.1444444444444444</v>
       </c>
     </row>
     <row r="55">
@@ -1372,16 +1372,16 @@
         <v>42522</v>
       </c>
       <c r="B55" t="n">
-        <v>0.8100965821959163</v>
+        <v>0.03497874195216746</v>
       </c>
       <c r="C55" t="n">
-        <v>0.8241843065082501</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5104932049111612</v>
+        <v>0.4228337906692736</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9790415223734227</v>
+        <v>0.1555555555555556</v>
       </c>
     </row>
     <row r="56">
@@ -1389,16 +1389,16 @@
         <v>42552</v>
       </c>
       <c r="B56" t="n">
-        <v>0.8183967831948311</v>
+        <v>0.03545693164152863</v>
       </c>
       <c r="C56" t="n">
-        <v>0.8284285715748178</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3560972505717873</v>
+        <v>0.4286143267772131</v>
       </c>
       <c r="E56" t="n">
-        <v>0.981015281890797</v>
+        <v>0.1555555555555556</v>
       </c>
     </row>
     <row r="57">
@@ -1406,16 +1406,16 @@
         <v>42583</v>
       </c>
       <c r="B57" t="n">
-        <v>0.8147146482922014</v>
+        <v>0.03403711403753597</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8202700264204013</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4669182200412889</v>
+        <v>0.4099229473111721</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9817396552186772</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="58">
@@ -1423,16 +1423,16 @@
         <v>42614</v>
       </c>
       <c r="B58" t="n">
-        <v>0.8063220843276583</v>
+        <v>0.03371927410403684</v>
       </c>
       <c r="C58" t="n">
-        <v>0.8258780750537105</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5033182562553414</v>
+        <v>0.3983257049335499</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9787856550618544</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="59">
@@ -1440,16 +1440,16 @@
         <v>42644</v>
       </c>
       <c r="B59" t="n">
-        <v>0.8080478076572463</v>
+        <v>0.03552324765595462</v>
       </c>
       <c r="C59" t="n">
-        <v>0.8186995853766205</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4901319569909405</v>
+        <v>0.4184096079689316</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9801327453041018</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="60">
@@ -1457,16 +1457,16 @@
         <v>42675</v>
       </c>
       <c r="B60" t="n">
-        <v>0.8124965697135286</v>
+        <v>0.0378736138613057</v>
       </c>
       <c r="C60" t="n">
-        <v>0.8191507907084582</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4353786391004341</v>
+        <v>0.4218594366029582</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9760322058243911</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="61">
@@ -1474,16 +1474,16 @@
         <v>42705</v>
       </c>
       <c r="B61" t="n">
-        <v>0.8139368519997429</v>
+        <v>0.03597357835170418</v>
       </c>
       <c r="C61" t="n">
-        <v>0.8228900852335511</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4986856164755484</v>
+        <v>0.4409136693949776</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9794266720231996</v>
+        <v>0.1555555555555556</v>
       </c>
     </row>
     <row r="62">
@@ -1491,16 +1491,16 @@
         <v>42736</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8067712217436585</v>
+        <v>0.02712496614971534</v>
       </c>
       <c r="C62" t="n">
-        <v>0.8233304665654089</v>
+        <v>0.4464983394660264</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5700337409100718</v>
+        <v>0.4582714175717195</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9846549301094776</v>
+        <v>0.1555555555555556</v>
       </c>
     </row>
     <row r="63">
@@ -1508,16 +1508,16 @@
         <v>42767</v>
       </c>
       <c r="B63" t="n">
-        <v>0.8182238647215494</v>
+        <v>0.02996446678484719</v>
       </c>
       <c r="C63" t="n">
-        <v>0.8223746599484877</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D63" t="n">
-        <v>0.454856946818932</v>
+        <v>0.4135086104018541</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9820560951350176</v>
+        <v>0.1555555555555556</v>
       </c>
     </row>
     <row r="64">
@@ -1525,16 +1525,16 @@
         <v>42795</v>
       </c>
       <c r="B64" t="n">
-        <v>0.8270024494154147</v>
+        <v>0.03267981857703478</v>
       </c>
       <c r="C64" t="n">
-        <v>0.8195031242404242</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D64" t="n">
-        <v>0.3578150554331625</v>
+        <v>0.4117269262586715</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9721032874061285</v>
+        <v>0.1444444444444444</v>
       </c>
     </row>
     <row r="65">
@@ -1542,16 +1542,16 @@
         <v>42826</v>
       </c>
       <c r="B65" t="n">
-        <v>0.813441790037817</v>
+        <v>0.03293734437352026</v>
       </c>
       <c r="C65" t="n">
-        <v>0.82201841942333</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D65" t="n">
-        <v>0.4379823293781138</v>
+        <v>0.3880001164361369</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9838459099350136</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="66">
@@ -1559,16 +1559,16 @@
         <v>42856</v>
       </c>
       <c r="B66" t="n">
-        <v>0.8005818281819526</v>
+        <v>0.03615879614672438</v>
       </c>
       <c r="C66" t="n">
-        <v>0.8227593368173521</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3433451879440547</v>
+        <v>0.4246353953056968</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9778158293211698</v>
+        <v>0.1222222222222222</v>
       </c>
     </row>
     <row r="67">
@@ -1576,16 +1576,16 @@
         <v>42887</v>
       </c>
       <c r="B67" t="n">
-        <v>0.8154578610815599</v>
+        <v>0.03453736534779911</v>
       </c>
       <c r="C67" t="n">
-        <v>0.8220724558148131</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D67" t="n">
-        <v>0.410549347079741</v>
+        <v>0.434322805656113</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9800304991106373</v>
+        <v>0.1222222222222222</v>
       </c>
     </row>
     <row r="68">
@@ -1593,16 +1593,16 @@
         <v>42917</v>
       </c>
       <c r="B68" t="n">
-        <v>0.8155122669478176</v>
+        <v>0.03680449454943904</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8215006893539329</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3952852113377378</v>
+        <v>0.4315402554739706</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9765079631200255</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="69">
@@ -1610,16 +1610,16 @@
         <v>42948</v>
       </c>
       <c r="B69" t="n">
-        <v>0.8046915430680994</v>
+        <v>0.03403562924119721</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8196592654238672</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5609150233935125</v>
+        <v>0.4175455725120634</v>
       </c>
       <c r="E69" t="n">
-        <v>0.979102434513735</v>
+        <v>0.09999999999999998</v>
       </c>
     </row>
     <row r="70">
@@ -1627,16 +1627,16 @@
         <v>42979</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8335959615893236</v>
+        <v>0.03222765409732174</v>
       </c>
       <c r="C70" t="n">
-        <v>0.818047234278343</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6199503001817661</v>
+        <v>0.3961997464733357</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9794011733698422</v>
+        <v>0.09999999999999998</v>
       </c>
     </row>
     <row r="71">
@@ -1644,16 +1644,16 @@
         <v>43009</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7839068529739605</v>
+        <v>0.03606019132108376</v>
       </c>
       <c r="C71" t="n">
-        <v>0.8201370254127243</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D71" t="n">
-        <v>0.4163665091399184</v>
+        <v>0.4219456793996276</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9848340411545677</v>
+        <v>0.09999999999999998</v>
       </c>
     </row>
     <row r="72">
@@ -1661,16 +1661,16 @@
         <v>43040</v>
       </c>
       <c r="B72" t="n">
-        <v>0.8136231473531693</v>
+        <v>0.03579618272321475</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8231901576691838</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5054531287823583</v>
+        <v>0.4259970485435868</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9771776535582584</v>
+        <v>0.08888888888888891</v>
       </c>
     </row>
     <row r="73">
@@ -1678,16 +1678,16 @@
         <v>43070</v>
       </c>
       <c r="B73" t="n">
-        <v>0.8103141008001655</v>
+        <v>0.03604473525659636</v>
       </c>
       <c r="C73" t="n">
-        <v>0.819973832527095</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D73" t="n">
-        <v>0.4790655403947179</v>
+        <v>0.4288206768453655</v>
       </c>
       <c r="E73" t="n">
-        <v>0.980097022167201</v>
+        <v>0.08888888888888891</v>
       </c>
     </row>
     <row r="74">
@@ -1695,16 +1695,16 @@
         <v>43101</v>
       </c>
       <c r="B74" t="n">
-        <v>0.8246466423312068</v>
+        <v>0.03608578038130857</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8201546828915486</v>
+        <v>0.5095802014560151</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5579617292651852</v>
+        <v>0.4530483960276906</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9868247112645042</v>
+        <v>0.07777777777777778</v>
       </c>
     </row>
     <row r="75">
@@ -1712,16 +1712,16 @@
         <v>43132</v>
       </c>
       <c r="B75" t="n">
-        <v>0.8330659605477557</v>
+        <v>0.03748966488852981</v>
       </c>
       <c r="C75" t="n">
-        <v>0.8290277501110732</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5115782435314746</v>
+        <v>0.4089722219328146</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9827496788666857</v>
+        <v>0.06666666666666671</v>
       </c>
     </row>
     <row r="76">
@@ -1729,16 +1729,16 @@
         <v>43160</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8075171382937057</v>
+        <v>0.03878689554001617</v>
       </c>
       <c r="C76" t="n">
-        <v>0.8228779466578857</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D76" t="n">
-        <v>0.4066752155894716</v>
+        <v>0.400235019387052</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9834844979235169</v>
+        <v>0.05555555555555558</v>
       </c>
     </row>
     <row r="77">
@@ -1746,16 +1746,16 @@
         <v>43191</v>
       </c>
       <c r="B77" t="n">
-        <v>0.8102497836714794</v>
+        <v>0.03478250920792273</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8199781543527314</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D77" t="n">
-        <v>0.4864555798421895</v>
+        <v>0.4025961097940537</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9810957775417388</v>
+        <v>0.04444444444444445</v>
       </c>
     </row>
     <row r="78">
@@ -1763,16 +1763,16 @@
         <v>43221</v>
       </c>
       <c r="B78" t="n">
-        <v>0.8183984649936918</v>
+        <v>0.03484181756434301</v>
       </c>
       <c r="C78" t="n">
-        <v>0.8267750524003048</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D78" t="n">
-        <v>0.4990037387758953</v>
+        <v>0.4173334094012734</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9817591353187322</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="79">
@@ -1780,16 +1780,16 @@
         <v>43252</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8106440688255686</v>
+        <v>0.03580222519763746</v>
       </c>
       <c r="C79" t="n">
-        <v>0.8223965221927245</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D79" t="n">
-        <v>0.443536424040789</v>
+        <v>0.4348838570878083</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9784106657816277</v>
+        <v>0.0222222222222222</v>
       </c>
     </row>
     <row r="80">
@@ -1797,16 +1797,16 @@
         <v>43282</v>
       </c>
       <c r="B80" t="n">
-        <v>0.8198417357191273</v>
+        <v>0.03552342280236619</v>
       </c>
       <c r="C80" t="n">
-        <v>0.8166722053316008</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D80" t="n">
-        <v>0.4183183667114636</v>
+        <v>0.4282351178019025</v>
       </c>
       <c r="E80" t="n">
-        <v>0.979491595978044</v>
+        <v>0.0222222222222222</v>
       </c>
     </row>
     <row r="81">
@@ -1814,16 +1814,16 @@
         <v>43313</v>
       </c>
       <c r="B81" t="n">
-        <v>0.7853610245878195</v>
+        <v>0.03569085668235908</v>
       </c>
       <c r="C81" t="n">
-        <v>0.8238186390224658</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D81" t="n">
-        <v>0.4596972479140294</v>
+        <v>0.4023491174910735</v>
       </c>
       <c r="E81" t="n">
-        <v>0.975033970154923</v>
+        <v>0.01111111111111113</v>
       </c>
     </row>
     <row r="82">
@@ -1831,16 +1831,16 @@
         <v>43344</v>
       </c>
       <c r="B82" t="n">
-        <v>0.824129043682934</v>
+        <v>0.03386838045942106</v>
       </c>
       <c r="C82" t="n">
-        <v>0.8178823542293278</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D82" t="n">
-        <v>0.4715287686595205</v>
+        <v>0.4046837463010601</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9826209712153378</v>
+        <v>0.0222222222222222</v>
       </c>
     </row>
     <row r="83">
@@ -1848,16 +1848,16 @@
         <v>43374</v>
       </c>
       <c r="B83" t="n">
-        <v>0.819552886792289</v>
+        <v>0.03206892966214181</v>
       </c>
       <c r="C83" t="n">
-        <v>0.820674477890516</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D83" t="n">
-        <v>0.4961603152117828</v>
+        <v>0.416484612949904</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9796210093737875</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="84">
@@ -1865,16 +1865,16 @@
         <v>43405</v>
       </c>
       <c r="B84" t="n">
-        <v>0.8179852778074733</v>
+        <v>0.03375422365380946</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8181339159172965</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D84" t="n">
-        <v>0.3415997683456339</v>
+        <v>0.4286253664214502</v>
       </c>
       <c r="E84" t="n">
-        <v>0.98166126228281</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="85">
@@ -1882,16 +1882,16 @@
         <v>43435</v>
       </c>
       <c r="B85" t="n">
-        <v>0.8101511910185669</v>
+        <v>0.03402675427726067</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8213242929372483</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D85" t="n">
-        <v>0.3600564217250121</v>
+        <v>0.4435342049618699</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9806439707852279</v>
+        <v>0.04444444444444445</v>
       </c>
     </row>
     <row r="86">
@@ -1899,16 +1899,16 @@
         <v>43466</v>
       </c>
       <c r="B86" t="n">
-        <v>0.7973139801202804</v>
+        <v>0.0385970033367766</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8259309936709726</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>0.3647174717258458</v>
+        <v>0.4708376284867886</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9786664338987189</v>
+        <v>0.04444444444444445</v>
       </c>
     </row>
     <row r="87">
@@ -1916,16 +1916,16 @@
         <v>43497</v>
       </c>
       <c r="B87" t="n">
-        <v>0.8196116871088801</v>
+        <v>0.03638481180619993</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8138010898794865</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5038792710841919</v>
+        <v>0.4015725194308818</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9767325971937034</v>
+        <v>0.04444444444444445</v>
       </c>
     </row>
     <row r="88">
@@ -1933,16 +1933,16 @@
         <v>43525</v>
       </c>
       <c r="B88" t="n">
-        <v>0.8018329244093183</v>
+        <v>0.03483728031224578</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8229487460305345</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5913563343395413</v>
+        <v>0.3954952649314133</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9793252182555847</v>
+        <v>0.04444444444444445</v>
       </c>
     </row>
     <row r="89">
@@ -1950,16 +1950,16 @@
         <v>43556</v>
       </c>
       <c r="B89" t="n">
-        <v>0.8045367245601444</v>
+        <v>0.03307125414974425</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8234836547045727</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D89" t="n">
-        <v>0.5446092017417534</v>
+        <v>0.4058774268442052</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9851240471169656</v>
+        <v>0.0222222222222222</v>
       </c>
     </row>
     <row r="90">
@@ -1967,16 +1967,16 @@
         <v>43586</v>
       </c>
       <c r="B90" t="n">
-        <v>0.8113212842232385</v>
+        <v>0.03615779116202781</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8170516540991243</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D90" t="n">
-        <v>0.4097728513891348</v>
+        <v>0.4183225499920211</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9785662060674547</v>
+        <v>0.01111111111111113</v>
       </c>
     </row>
     <row r="91">
@@ -1984,16 +1984,16 @@
         <v>43617</v>
       </c>
       <c r="B91" t="n">
-        <v>0.8186221843914154</v>
+        <v>0.03610693730671939</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8206962770596742</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D91" t="n">
-        <v>0.38649153885636</v>
+        <v>0.4347158515106424</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9823941640804321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2001,16 +2001,16 @@
         <v>43647</v>
       </c>
       <c r="B92" t="n">
-        <v>0.8189620174086807</v>
+        <v>0.03987335920424408</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8175942660774596</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D92" t="n">
-        <v>0.4792752537025191</v>
+        <v>0.4273716585722045</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9798030836781131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -2018,16 +2018,16 @@
         <v>43678</v>
       </c>
       <c r="B93" t="n">
-        <v>0.8154828077055877</v>
+        <v>0.04124068607495732</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8230507446757434</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D93" t="n">
-        <v>0.4312301472581591</v>
+        <v>0.4135286828749266</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9781783786194277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2035,16 +2035,16 @@
         <v>43709</v>
       </c>
       <c r="B94" t="n">
-        <v>0.8241791552854203</v>
+        <v>0.04073908460316843</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8221298771470258</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D94" t="n">
-        <v>0.4565441355295847</v>
+        <v>0.4017684758182157</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9765585280189282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2052,16 +2052,16 @@
         <v>43739</v>
       </c>
       <c r="B95" t="n">
-        <v>0.8126319742663987</v>
+        <v>0.03392052695522764</v>
       </c>
       <c r="C95" t="n">
-        <v>0.819289810779421</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5099701165816628</v>
+        <v>0.4223657725137986</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9797858088696763</v>
+        <v>0.01111111111111113</v>
       </c>
     </row>
     <row r="96">
@@ -2069,16 +2069,16 @@
         <v>43770</v>
       </c>
       <c r="B96" t="n">
-        <v>0.8124937237162303</v>
+        <v>0.03591592838013977</v>
       </c>
       <c r="C96" t="n">
-        <v>0.8224031023543661</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D96" t="n">
-        <v>0.4682875810744797</v>
+        <v>0.416888131446267</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9750503690185857</v>
+        <v>0.01111111111111113</v>
       </c>
     </row>
     <row r="97">
@@ -2086,16 +2086,16 @@
         <v>43800</v>
       </c>
       <c r="B97" t="n">
-        <v>0.8132794396938479</v>
+        <v>0.0333025396366167</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8183015343154202</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D97" t="n">
-        <v>0.4666626050633214</v>
+        <v>0.4585722359637836</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9831072632591373</v>
+        <v>0.01111111111111113</v>
       </c>
     </row>
     <row r="98">
@@ -2103,16 +2103,16 @@
         <v>43831</v>
       </c>
       <c r="B98" t="n">
-        <v>0.7973372499006984</v>
+        <v>0.0279763808192387</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8266883716369168</v>
+        <v>0.7682719135864545</v>
       </c>
       <c r="D98" t="n">
-        <v>0.4562957516250217</v>
+        <v>0.4450576507383597</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9826493603113391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -2120,16 +2120,16 @@
         <v>43862</v>
       </c>
       <c r="B99" t="n">
-        <v>0.8137453876417202</v>
+        <v>0.02893872473758137</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8244621293926442</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D99" t="n">
-        <v>0.439059555797408</v>
+        <v>0.4277837735281101</v>
       </c>
       <c r="E99" t="n">
-        <v>0.98124669381788</v>
+        <v>0.01111111111111113</v>
       </c>
     </row>
     <row r="100">
@@ -2137,16 +2137,16 @@
         <v>43891</v>
       </c>
       <c r="B100" t="n">
-        <v>0.6969692592429803</v>
+        <v>0.03330106005207043</v>
       </c>
       <c r="C100" t="n">
-        <v>0.762894256021043</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2262743642876197</v>
+        <v>0.4195087941464034</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9717266243966615</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="101">
@@ -2154,16 +2154,16 @@
         <v>43922</v>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>0.0126892074288105</v>
       </c>
       <c r="C101" t="n">
-        <v>0.01182346175643989</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>0.956664595749088</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="102">
@@ -2171,16 +2171,16 @@
         <v>43952</v>
       </c>
       <c r="B102" t="n">
-        <v>0.9569070071883189</v>
+        <v>0.003843692712000874</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9241151740788696</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D102" t="n">
-        <v>0.3522132825430839</v>
+        <v>0.4411090143978048</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9795497106727131</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="103">
@@ -2188,16 +2188,16 @@
         <v>43983</v>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6138188260274466</v>
+        <v>0.4227310434394611</v>
       </c>
       <c r="E103" t="n">
-        <v>0.9824998107526026</v>
+        <v>0.6555555555555556</v>
       </c>
     </row>
     <row r="104">
@@ -2205,16 +2205,16 @@
         <v>44013</v>
       </c>
       <c r="B104" t="n">
-        <v>0.8619915693855537</v>
+        <v>0.05745525894670163</v>
       </c>
       <c r="C104" t="n">
-        <v>0.8719716723206929</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D104" t="n">
-        <v>0.6223428498919439</v>
+        <v>0.4175290841492866</v>
       </c>
       <c r="E104" t="n">
-        <v>0.9876516371695102</v>
+        <v>0.5888888888888889</v>
       </c>
     </row>
     <row r="105">
@@ -2222,16 +2222,16 @@
         <v>44044</v>
       </c>
       <c r="B105" t="n">
-        <v>0.9301592416903756</v>
+        <v>0.05669186474242989</v>
       </c>
       <c r="C105" t="n">
-        <v>0.8827494139037064</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D105" t="n">
-        <v>0.568632768710604</v>
+        <v>0.3976394958525619</v>
       </c>
       <c r="E105" t="n">
-        <v>0.9869906892720072</v>
+        <v>0.4888888888888888</v>
       </c>
     </row>
     <row r="106">
@@ -2239,16 +2239,16 @@
         <v>44075</v>
       </c>
       <c r="B106" t="n">
-        <v>0.8220104815944788</v>
+        <v>0.05770513927718935</v>
       </c>
       <c r="C106" t="n">
-        <v>0.8519897923760563</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D106" t="n">
-        <v>0.4905468607131919</v>
+        <v>0.3594122334165107</v>
       </c>
       <c r="E106" t="n">
-        <v>0.9811618247421615</v>
+        <v>0.4111111111111111</v>
       </c>
     </row>
     <row r="107">
@@ -2256,16 +2256,16 @@
         <v>44105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.8854473545587337</v>
+        <v>0.03997464933921981</v>
       </c>
       <c r="C107" t="n">
-        <v>0.8424105555477105</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D107" t="n">
-        <v>0.4091997879257664</v>
+        <v>0.3608090651028321</v>
       </c>
       <c r="E107" t="n">
-        <v>0.9753990616390603</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="108">
@@ -2273,16 +2273,16 @@
         <v>44136</v>
       </c>
       <c r="B108" t="n">
-        <v>0.809529527014256</v>
+        <v>0.04012553008907753</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8247803516057473</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D108" t="n">
-        <v>0.4466437111373774</v>
+        <v>0.3259287414719045</v>
       </c>
       <c r="E108" t="n">
-        <v>0.9751453397140232</v>
+        <v>0.2888888888888889</v>
       </c>
     </row>
     <row r="109">
@@ -2290,16 +2290,16 @@
         <v>44166</v>
       </c>
       <c r="B109" t="n">
-        <v>0.8080962408847309</v>
+        <v>0.03465623578324948</v>
       </c>
       <c r="C109" t="n">
-        <v>0.804278529958791</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5321018246348093</v>
+        <v>0.3688293225042922</v>
       </c>
       <c r="E109" t="n">
-        <v>0.9875337282372185</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="110">
@@ -2307,16 +2307,16 @@
         <v>44197</v>
       </c>
       <c r="B110" t="n">
-        <v>0.8037985530107958</v>
+        <v>0.03750768975565661</v>
       </c>
       <c r="C110" t="n">
-        <v>0.8336290661528916</v>
+        <v>0.8005039589318341</v>
       </c>
       <c r="D110" t="n">
-        <v>0.4943928131909315</v>
+        <v>0.3980524221032412</v>
       </c>
       <c r="E110" t="n">
-        <v>0.9869867133354615</v>
+        <v>0.2444444444444445</v>
       </c>
     </row>
     <row r="111">
@@ -2324,16 +2324,16 @@
         <v>44228</v>
       </c>
       <c r="B111" t="n">
-        <v>0.8186046173234472</v>
+        <v>0.03808419309568326</v>
       </c>
       <c r="C111" t="n">
-        <v>0.8366655330876169</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5855552089591999</v>
+        <v>0.4238198240994059</v>
       </c>
       <c r="E111" t="n">
-        <v>0.9809566549164035</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="112">
@@ -2341,16 +2341,16 @@
         <v>44256</v>
       </c>
       <c r="B112" t="n">
-        <v>0.8259506443671929</v>
+        <v>0.03466102190886926</v>
       </c>
       <c r="C112" t="n">
-        <v>0.8445415267298729</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6801679785195373</v>
+        <v>0.4064487342747109</v>
       </c>
       <c r="E112" t="n">
-        <v>0.991288101526027</v>
+        <v>0.2111111111111111</v>
       </c>
     </row>
     <row r="113">
@@ -2358,16 +2358,16 @@
         <v>44287</v>
       </c>
       <c r="B113" t="n">
-        <v>0.8215175625321907</v>
+        <v>0.03346656047769393</v>
       </c>
       <c r="C113" t="n">
-        <v>0.8254862688070219</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D113" t="n">
-        <v>0.681290936005489</v>
+        <v>0.410925706232977</v>
       </c>
       <c r="E113" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.1888888888888889</v>
       </c>
     </row>
     <row r="114">
@@ -2375,16 +2375,16 @@
         <v>44317</v>
       </c>
       <c r="B114" t="n">
-        <v>0.8177091421539534</v>
+        <v>0.03373911300127776</v>
       </c>
       <c r="C114" t="n">
-        <v>0.832893679041615</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D114" t="n">
-        <v>0.7097890436050871</v>
+        <v>0.425885019949622</v>
       </c>
       <c r="E114" t="n">
-        <v>0.9953177368131433</v>
+        <v>0.1666666666666666</v>
       </c>
     </row>
     <row r="115">
@@ -2392,16 +2392,16 @@
         <v>44348</v>
       </c>
       <c r="B115" t="n">
-        <v>0.8139240932155383</v>
+        <v>0.03307105987624753</v>
       </c>
       <c r="C115" t="n">
-        <v>0.8407928447358934</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7918698206865462</v>
+        <v>0.404126995813321</v>
       </c>
       <c r="E115" t="n">
-        <v>0.9938378403237628</v>
+        <v>0.1555555555555556</v>
       </c>
     </row>
     <row r="116">
@@ -2409,16 +2409,16 @@
         <v>44378</v>
       </c>
       <c r="B116" t="n">
-        <v>0.8447262678280361</v>
+        <v>0.03417156495713969</v>
       </c>
       <c r="C116" t="n">
-        <v>0.8435193384603674</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5933676549433829</v>
+        <v>0.3628228312107738</v>
       </c>
       <c r="E116" t="n">
-        <v>0.9902418238171297</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="117">
@@ -2426,16 +2426,16 @@
         <v>44409</v>
       </c>
       <c r="B117" t="n">
-        <v>0.8216318148412766</v>
+        <v>0.03493686601279874</v>
       </c>
       <c r="C117" t="n">
-        <v>0.8394124451332354</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5369842896455852</v>
+        <v>0.370836308577887</v>
       </c>
       <c r="E117" t="n">
-        <v>0.9875954422895242</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="118">
@@ -2443,16 +2443,16 @@
         <v>44440</v>
       </c>
       <c r="B118" t="n">
-        <v>0.829324685465715</v>
+        <v>0.0359607845516161</v>
       </c>
       <c r="C118" t="n">
-        <v>0.8353603053475847</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5733056891296506</v>
+        <v>0.4765903462306808</v>
       </c>
       <c r="E118" t="n">
-        <v>0.9826403914483204</v>
+        <v>0.08888888888888891</v>
       </c>
     </row>
     <row r="119">
@@ -2460,16 +2460,16 @@
         <v>44470</v>
       </c>
       <c r="B119" t="n">
-        <v>0.8248883981973458</v>
+        <v>0.0383965826361498</v>
       </c>
       <c r="C119" t="n">
-        <v>0.8435751480102291</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D119" t="n">
-        <v>0.7869501147721993</v>
+        <v>0.4208489854060508</v>
       </c>
       <c r="E119" t="n">
-        <v>0.990822126533077</v>
+        <v>0.08888888888888891</v>
       </c>
     </row>
     <row r="120">
@@ -2477,16 +2477,16 @@
         <v>44501</v>
       </c>
       <c r="B120" t="n">
-        <v>0.8454799427581161</v>
+        <v>0.03775238522145696</v>
       </c>
       <c r="C120" t="n">
-        <v>0.8372741196385735</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D120" t="n">
-        <v>0.7086646182002438</v>
+        <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>0.9952808646827681</v>
+        <v>0.07777777777777778</v>
       </c>
     </row>
     <row r="121">
@@ -2494,16 +2494,16 @@
         <v>44531</v>
       </c>
       <c r="B121" t="n">
-        <v>0.8253004314759759</v>
+        <v>0.03854423330931259</v>
       </c>
       <c r="C121" t="n">
-        <v>0.8355296793252621</v>
+        <v>0.3542770127738924</v>
       </c>
       <c r="D121" t="n">
-        <v>0.6505070675988471</v>
+        <v>0.4282984766898218</v>
       </c>
       <c r="E121" t="n">
-        <v>0.9964095594698834</v>
+        <v>0.07777777777777778</v>
       </c>
     </row>
     <row r="122">
@@ -2511,16 +2511,16 @@
         <v>44562</v>
       </c>
       <c r="B122" t="n">
-        <v>0.8417655800512969</v>
+        <v>0.02997988559547386</v>
       </c>
       <c r="C122" t="n">
-        <v>0.8279498252863896</v>
+        <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6833060359507753</v>
+        <v>0.5063311470717896</v>
       </c>
       <c r="E122" t="n">
-        <v>0.9934873959452977</v>
+        <v>0.07777777777777778</v>
       </c>
     </row>
     <row r="123">
@@ -2528,16 +2528,16 @@
         <v>44593</v>
       </c>
       <c r="B123" t="n">
-        <v>0.8225231991975527</v>
+        <v>0.02912337140276923</v>
       </c>
       <c r="C123" t="n">
-        <v>0.8476052779413291</v>
+        <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>0.7548506731960245</v>
+        <v>0.4158166906022783</v>
       </c>
       <c r="E123" t="n">
-        <v>0.9891751212416464</v>
+        <v>0.06666666666666671</v>
       </c>
     </row>
     <row r="124">
@@ -2545,16 +2545,16 @@
         <v>44621</v>
       </c>
       <c r="B124" t="n">
-        <v>0.8314178054745589</v>
+        <v>0.02448737039867159</v>
       </c>
       <c r="C124" t="n">
-        <v>0.8296529253655485</v>
+        <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>0.9618970566512602</v>
+        <v>0.416632221224516</v>
       </c>
       <c r="E124" t="n">
-        <v>0.9891880507522977</v>
+        <v>0.04444444444444445</v>
       </c>
     </row>
     <row r="125">
@@ -2562,16 +2562,16 @@
         <v>44652</v>
       </c>
       <c r="B125" t="n">
-        <v>0.7954831318683658</v>
+        <v>0.03843051808504385</v>
       </c>
       <c r="C125" t="n">
-        <v>0.8238175672650873</v>
+        <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>0.5362716851339961</v>
+        <v>0.4330113654175102</v>
       </c>
       <c r="E125" t="n">
-        <v>0.9868666973528365</v>
+        <v>0.04444444444444445</v>
       </c>
     </row>
     <row r="126">
@@ -2579,16 +2579,16 @@
         <v>44682</v>
       </c>
       <c r="B126" t="n">
-        <v>0.8174440166948352</v>
+        <v>0.03309862116648855</v>
       </c>
       <c r="C126" t="n">
-        <v>0.8277797188483189</v>
+        <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>0.8373213481418396</v>
+        <v>0.4629614033696666</v>
       </c>
       <c r="E126" t="n">
-        <v>0.9894910767429179</v>
+        <v>0.04444444444444445</v>
       </c>
     </row>
     <row r="127">
@@ -2596,16 +2596,16 @@
         <v>44713</v>
       </c>
       <c r="B127" t="n">
-        <v>0.7989289927695611</v>
+        <v>0.02807320963372802</v>
       </c>
       <c r="C127" t="n">
-        <v>0.8279645765271101</v>
+        <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>0.4215274838954894</v>
       </c>
       <c r="E127" t="n">
-        <v>0.9998990712482405</v>
+        <v>0.0222222222222222</v>
       </c>
     </row>
     <row r="128">
@@ -2613,16 +2613,16 @@
         <v>44743</v>
       </c>
       <c r="B128" t="n">
-        <v>0.8140641755195509</v>
+        <v>0.04393098853994561</v>
       </c>
       <c r="C128" t="n">
-        <v>0.8350499354766038</v>
+        <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>0.3707296219929684</v>
+        <v>0.4370625938214815</v>
       </c>
       <c r="E128" t="n">
-        <v>0.9771713840447283</v>
+        <v>0.01111111111111113</v>
       </c>
     </row>
     <row r="129">
@@ -2630,16 +2630,16 @@
         <v>44774</v>
       </c>
       <c r="B129" t="n">
-        <v>0.8208919451701608</v>
+        <v>0.03914973914380713</v>
       </c>
       <c r="C129" t="n">
-        <v>0.8272376443346845</v>
+        <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>0.4356150255383813</v>
+        <v>0.4521839037967311</v>
       </c>
       <c r="E129" t="n">
-        <v>0.9966912583357779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -2647,16 +2647,16 @@
         <v>44805</v>
       </c>
       <c r="B130" t="n">
-        <v>0.8120903226948355</v>
+        <v>0.03808381331779993</v>
       </c>
       <c r="C130" t="n">
-        <v>0.827137159737487</v>
+        <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>0.5617259035703712</v>
+        <v>0.3740423002959297</v>
       </c>
       <c r="E130" t="n">
-        <v>0.9931564108696392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -2664,16 +2664,16 @@
         <v>44835</v>
       </c>
       <c r="B131" t="n">
-        <v>0.7984613780182788</v>
+        <v>0.0357729987730858</v>
       </c>
       <c r="C131" t="n">
-        <v>0.8261809070724782</v>
+        <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>0.5863861258720136</v>
+        <v>0.3383879082341598</v>
       </c>
       <c r="E131" t="n">
-        <v>0.986597945689223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -2681,16 +2681,16 @@
         <v>44866</v>
       </c>
       <c r="B132" t="n">
-        <v>0.8047628919116875</v>
+        <v>0.0393681884421471</v>
       </c>
       <c r="C132" t="n">
-        <v>0.8249456853534888</v>
+        <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>0.4252858022654106</v>
+        <v>0.4668929568463405</v>
       </c>
       <c r="E132" t="n">
-        <v>0.982967929989221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -2698,16 +2698,16 @@
         <v>44896</v>
       </c>
       <c r="B133" t="n">
-        <v>0.8305827208491328</v>
+        <v>0.03990306730424598</v>
       </c>
       <c r="C133" t="n">
-        <v>0.8231128340033643</v>
+        <v>0</v>
       </c>
       <c r="D133" t="n">
         <v>0</v>
       </c>
       <c r="E133" t="n">
-        <v>0.9894576781362352</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/covid19_drdfm/data/example-output/VA/df.xlsx
+++ b/covid19_drdfm/data/example-output/VA/df.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:O133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,19 +452,69 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Prod</t>
+          <t>RPFI</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>FixAss</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>UI</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PartR</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>UR</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Cons3</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Cons5</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CPIU</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>PCE</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Mask2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>School</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Hosp1</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Deaths1</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -480,7 +530,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.4</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -491,13 +571,43 @@
         <v>0.03062365867707141</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.7486108402575973</v>
       </c>
       <c r="D3" t="n">
+        <v>0.08016277434983152</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.4145354014375826</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
+        <v>0.9565217391304355</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0339785581670825</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.008386457557097549</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.4804248097350872</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.9679389035394174</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +618,43 @@
         <v>0.03104707901253794</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.7455479933931407</v>
       </c>
       <c r="D4" t="n">
+        <v>0.09472130712131829</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.4075567927771913</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
+        <v>0.9347826086956541</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.3888888888888888</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.03542470573360739</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.008716327568304644</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4783596646895119</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.966573298315848</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -525,13 +665,43 @@
         <v>0.03393197569534429</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.7473855436806308</v>
       </c>
       <c r="D5" t="n">
+        <v>0.2916303076807592</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.4053600080765794</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
+        <v>0.9130434782608692</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.3888888888888888</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0381047520158537</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.009322976428061937</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.4580164258916395</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.9640820130383683</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -542,13 +712,43 @@
         <v>0.0370950989909735</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.7462465804711019</v>
       </c>
       <c r="D6" t="n">
+        <v>0.4082342063464102</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.4159640316286306</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
+        <v>0.8913043478260878</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.3888888888888888</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.04924173708871149</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.01182689593736784</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.2823120937051792</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.9538741718760513</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -559,13 +759,43 @@
         <v>0.03627913680379277</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.7451224037972956</v>
       </c>
       <c r="D7" t="n">
+        <v>0.3780778800701189</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.4263957847997222</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
+        <v>0.8695652173913029</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.3777777777777778</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.04633976748774346</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.01118112546025835</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.3408982227867237</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.956476820529933</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -576,13 +806,43 @@
         <v>0.03575162416425171</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6128048396686098</v>
       </c>
       <c r="D8" t="n">
+        <v>0.3834590052139891</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.4282758957262676</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
+        <v>0.8695652173913029</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.3666666666666667</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.04232808843303645</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0102863464528838</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.3934463727922193</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.9600922983102562</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -593,13 +853,43 @@
         <v>0.03184446236278694</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6127920541675546</v>
       </c>
       <c r="D9" t="n">
+        <v>0.2394031377448466</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.4090502372106164</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
+        <v>0.8695652173913029</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.3666666666666667</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.02853117009104746</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.00719620202162085</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.6527359268372354</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.9726370191705382</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -610,13 +900,43 @@
         <v>0.03225059939418066</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6127792846818101</v>
       </c>
       <c r="D10" t="n">
+        <v>0.2544351512571369</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.4091861302765621</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
+        <v>0.8695652173913029</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.3555555555555555</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.02995270005783849</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.007520276658911176</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.6040928049754837</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.9712958398905062</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -627,13 +947,43 @@
         <v>0.02896740568441081</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6940605561820387</v>
       </c>
       <c r="D11" t="n">
+        <v>0.1462656378254283</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.425183723987134</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
+        <v>0.8913043478260878</v>
+      </c>
+      <c r="G11" t="n">
         <v>0.3444444444444444</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.03022025558323399</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.007585413221517751</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.506728251696605</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.9710078867636006</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -644,13 +994,43 @@
         <v>0.03370759616838685</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6930749188238606</v>
       </c>
       <c r="D12" t="n">
+        <v>0.3206264998788724</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.4276876452190457</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
+        <v>0.8913043478260878</v>
+      </c>
+      <c r="G12" t="n">
         <v>0.3444444444444444</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.04689697968510514</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.01133190783165404</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.3006557725101743</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.9557458204525275</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -661,13 +1041,43 @@
         <v>0.03303474297749752</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6920994958999973</v>
       </c>
       <c r="D13" t="n">
+        <v>0.2953379349033</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.4335105089266202</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
+        <v>0.8695652173913029</v>
+      </c>
+      <c r="G13" t="n">
         <v>0.3444444444444444</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.04447550880988975</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.01079367456574679</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.37413804795302</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.9579119267895568</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -678,13 +1088,43 @@
         <v>0.03729212061566143</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7644406490906059</v>
+        <v>0.7668525932905496</v>
       </c>
       <c r="D14" t="n">
+        <v>0.4170929977091329</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.4554414342371979</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
+        <v>0.8695652173913029</v>
+      </c>
+      <c r="G14" t="n">
         <v>0.3333333333333333</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.03229753760065682</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.00836912514352829</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.4730736920152049</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.9666573187698657</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -695,13 +1135,43 @@
         <v>0.03500130234050588</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.7659960080233621</v>
       </c>
       <c r="D15" t="n">
+        <v>0.3332194606836839</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.4188179938138217</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
+        <v>0.8478260869565215</v>
+      </c>
+      <c r="G15" t="n">
         <v>0.3333333333333333</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.02432649544230783</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.006583609969278694</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.6349860070635606</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.9739022526346681</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -712,13 +1182,43 @@
         <v>0.04143349913297785</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.7651485288174769</v>
       </c>
       <c r="D16" t="n">
+        <v>0.5710710051189873</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.4022369488677925</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
+        <v>0.8478260869565215</v>
+      </c>
+      <c r="G16" t="n">
         <v>0.3333333333333333</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.04713090662702397</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.01170255458755767</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.2471689513070562</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.953062076468007</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -729,13 +1229,43 @@
         <v>0.03245537853038345</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.5987597499495696</v>
       </c>
       <c r="D17" t="n">
+        <v>0.3753068999710534</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.40965515596984</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
+        <v>0.8260869565217401</v>
+      </c>
+      <c r="G17" t="n">
         <v>0.3333333333333333</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.04464830225809716</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.01114833189882897</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.2813645162752761</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.9552985360150279</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -746,13 +1276,43 @@
         <v>0.0305845596651316</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.5984454334579992</v>
       </c>
       <c r="D18" t="n">
+        <v>0.3053133322210062</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.4162082977729967</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
+        <v>0.8260869565217401</v>
+      </c>
+      <c r="G18" t="n">
         <v>0.3333333333333333</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.03801884830624884</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.009663743546365497</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.3993518297214528</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.9613194141187007</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -763,13 +1323,43 @@
         <v>0.02862734399897086</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.5981315421543372</v>
       </c>
       <c r="D19" t="n">
+        <v>0.2321382300944252</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.42363132151542</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
+        <v>0.8478260869565215</v>
+      </c>
+      <c r="G19" t="n">
         <v>0.3333333333333333</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.03108473605833064</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.008110786050113776</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.4918638127890506</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.9676185898792923</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -780,13 +1370,43 @@
         <v>0.03298376089619227</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6676748308204866</v>
       </c>
       <c r="D20" t="n">
+        <v>0.2581884358399419</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.4290510544531505</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
+        <v>0.8478260869565215</v>
+      </c>
+      <c r="G20" t="n">
         <v>0.3333333333333333</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.03524336586294976</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.009046468048332899</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.4719810427311055</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.9637948380358665</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -797,13 +1417,43 @@
         <v>0.032597437930442</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6666632022159595</v>
       </c>
       <c r="D21" t="n">
+        <v>0.2429764954913033</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.4105339682205775</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
+        <v>0.8260869565217401</v>
+      </c>
+      <c r="G21" t="n">
         <v>0.3333333333333333</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.03386105286781986</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.008739019731628623</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.4921920362000497</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.9650278671739611</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -814,13 +1464,43 @@
         <v>0.03408384410078716</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6656600685258922</v>
       </c>
       <c r="D22" t="n">
+        <v>0.2968417748414956</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.4090619912367234</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
+        <v>0.8260869565217401</v>
+      </c>
+      <c r="G22" t="n">
         <v>0.3222222222222222</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.03908630137715309</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.009913960086954146</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.3976005690238599</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.9602308122521267</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -831,13 +1511,43 @@
         <v>0.03349723952861353</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6530515310892638</v>
       </c>
       <c r="D23" t="n">
+        <v>0.2662101343174023</v>
+      </c>
+      <c r="E23" t="n">
         <v>0.4405395451297687</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
+        <v>0.804347826086957</v>
+      </c>
+      <c r="G23" t="n">
         <v>0.3222222222222222</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.03308980034476273</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.008571280808675851</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.4050553748719518</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.9656751792246812</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -848,13 +1558,43 @@
         <v>0.033659248394573</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6524380780434641</v>
       </c>
       <c r="D24" t="n">
+        <v>0.2715498724257872</v>
+      </c>
+      <c r="E24" t="n">
         <v>0.4073594983279255</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
+        <v>0.804347826086957</v>
+      </c>
+      <c r="G24" t="n">
         <v>0.3111111111111111</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.03365837027147959</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.00870145778560201</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.4666731454969064</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.9651282623410788</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -865,13 +1605,43 @@
         <v>0.03309316245299262</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6518288301970864</v>
       </c>
       <c r="D25" t="n">
+        <v>0.2500384615168453</v>
+      </c>
+      <c r="E25" t="n">
         <v>0.4348282685133664</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
+        <v>0.804347826086957</v>
+      </c>
+      <c r="G25" t="n">
         <v>0.3111111111111111</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.03165806970486568</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.008255290164269248</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.504271433281398</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.9669260016326096</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -882,13 +1652,43 @@
         <v>0.02725600735895146</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>0.6134941067023334</v>
       </c>
       <c r="D26" t="n">
+        <v>0.209433871388348</v>
+      </c>
+      <c r="E26" t="n">
         <v>0.4523620424592431</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
+        <v>0.804347826086957</v>
+      </c>
+      <c r="G26" t="n">
         <v>0.2999999999999999</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.02895968082371668</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.009383759019662839</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.493934346505972</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.9665405811298221</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -899,13 +1699,43 @@
         <v>0.02895886407472024</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6130710256538507</v>
       </c>
       <c r="D27" t="n">
+        <v>0.2716658542061386</v>
+      </c>
+      <c r="E27" t="n">
         <v>0.4179618835637149</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
+        <v>0.8260869565217401</v>
+      </c>
+      <c r="G27" t="n">
         <v>0.2999999999999999</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.03497198518107095</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.01072685234538619</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.4316850960443767</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.9610381658735081</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -916,13 +1746,43 @@
         <v>0.02711062854789252</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.612649193954974</v>
       </c>
       <c r="D28" t="n">
+        <v>0.2029236795797475</v>
+      </c>
+      <c r="E28" t="n">
         <v>0.4024642953948677</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
+        <v>0.8260869565217401</v>
+      </c>
+      <c r="G28" t="n">
         <v>0.2999999999999999</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.02845533393235765</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.00925911620372491</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.4759716818008413</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.9669709174555586</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -933,13 +1793,43 @@
         <v>0.03497519201340208</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.7632739859621929</v>
       </c>
       <c r="D29" t="n">
+        <v>0.2024832124413278</v>
+      </c>
+      <c r="E29" t="n">
         <v>0.4007100756298689</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
+        <v>0.8260869565217401</v>
+      </c>
+      <c r="G29" t="n">
         <v>0.2999999999999999</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.02872557662181215</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.009314063277491444</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.467607911577312</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.9667094161832184</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -950,13 +1840,43 @@
         <v>0.03523926025799354</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.7609708428752512</v>
       </c>
       <c r="D30" t="n">
+        <v>0.2121313880064733</v>
+      </c>
+      <c r="E30" t="n">
         <v>0.4105874815384464</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
+        <v>0.804347826086957</v>
+      </c>
+      <c r="G30" t="n">
         <v>0.2888888888888889</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.02970850220778843</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.009528943177895649</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.4694354679379368</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.9657974574043684</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -967,13 +1887,43 @@
         <v>0.03599485463000949</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.7587056802008004</v>
       </c>
       <c r="D31" t="n">
+        <v>0.2399056357586364</v>
+      </c>
+      <c r="E31" t="n">
         <v>0.4222219955476978</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
+        <v>0.804347826086957</v>
+      </c>
+      <c r="G31" t="n">
         <v>0.2888888888888889</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.03242519614936495</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.01013283611820827</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.4420601940130754</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.9633029987871482</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -984,13 +1934,43 @@
         <v>0.0345303628218116</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6915381348265366</v>
       </c>
       <c r="D32" t="n">
+        <v>0.2259542548669369</v>
+      </c>
+      <c r="E32" t="n">
         <v>0.4256456439007479</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
+        <v>0.7608695652173907</v>
+      </c>
+      <c r="G32" t="n">
         <v>0.2777777777777777</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.03067789014783733</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.009735271632286577</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.4328522352647602</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.9648830981661997</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1001,13 +1981,43 @@
         <v>0.03663982067920093</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6903742422031732</v>
       </c>
       <c r="D33" t="n">
+        <v>0.3034401140182323</v>
+      </c>
+      <c r="E33" t="n">
         <v>0.412451490049708</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
+        <v>0.7391304347826093</v>
+      </c>
+      <c r="G33" t="n">
         <v>0.2777777777777777</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.03814743481689672</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.01140554968365007</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.3723022077765162</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.9580503926351426</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1018,13 +2028,43 @@
         <v>0.03613549442847599</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6892225020622333</v>
       </c>
       <c r="D34" t="n">
+        <v>0.284519619437374</v>
+      </c>
+      <c r="E34" t="n">
         <v>0.4060230166239173</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
+        <v>0.7173913043478279</v>
+      </c>
+      <c r="G34" t="n">
         <v>0.2666666666666667</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.03639471866956319</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.01100685311603341</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.3832166305801797</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.9596354928650028</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1035,13 +2075,43 @@
         <v>0.03655487142120958</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.707624830027609</v>
       </c>
       <c r="D35" t="n">
+        <v>0.457888445220629</v>
+      </c>
+      <c r="E35" t="n">
         <v>0.4140137806440641</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
+        <v>0.695652173913043</v>
+      </c>
+      <c r="G35" t="n">
         <v>0.2555555555555556</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.03869404390930321</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.01151727268671427</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.3705152434098531</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.9575220698412108</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1052,13 +2122,43 @@
         <v>0.03721358329647202</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.7072296766744308</v>
       </c>
       <c r="D36" t="n">
+        <v>0.4820398869029758</v>
+      </c>
+      <c r="E36" t="n">
         <v>0.4301146541167876</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
+        <v>0.6739130434782616</v>
+      </c>
+      <c r="G36" t="n">
         <v>0.2555555555555556</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.04103974713610811</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.01203813694169107</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.2910385964014466</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.9553663852445861</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1069,13 +2169,43 @@
         <v>0.03820277446575044</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.7068374191508373</v>
       </c>
       <c r="D37" t="n">
+        <v>0.5183820464328088</v>
+      </c>
+      <c r="E37" t="n">
         <v>0.4336179663862678</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
+        <v>0.6521739130434767</v>
+      </c>
+      <c r="G37" t="n">
         <v>0.2444444444444445</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.0445513069055167</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.012820600538479</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.2342588880723614</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.9521466689884892</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1086,13 +2216,43 @@
         <v>0.04252317376825292</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5528179476086801</v>
+        <v>0.6229472717851521</v>
       </c>
       <c r="D38" t="n">
+        <v>0.5913221161906812</v>
+      </c>
+      <c r="E38" t="n">
         <v>0.4502674700829145</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
+        <v>0.6521739130434767</v>
+      </c>
+      <c r="G38" t="n">
         <v>0.2444444444444445</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.06677708027059175</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.01539768465807133</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.07870096975326518</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.9391826878446033</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1103,13 +2263,43 @@
         <v>0.03434174226233589</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6229196429372954</v>
       </c>
       <c r="D39" t="n">
+        <v>0.2898058736994087</v>
+      </c>
+      <c r="E39" t="n">
         <v>0.4152803697957878</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
+        <v>0.6304347826086953</v>
+      </c>
+      <c r="G39" t="n">
         <v>0.2333333333333334</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.03789475575851751</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.008925629850689573</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.4991270461619542</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.965489893197179</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1120,13 +2310,43 @@
         <v>0.03397842293006671</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6228920562648024</v>
       </c>
       <c r="D40" t="n">
+        <v>0.2766520575853774</v>
+      </c>
+      <c r="E40" t="n">
         <v>0.4068531183148272</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
+        <v>0.608695652173914</v>
+      </c>
+      <c r="G40" t="n">
         <v>0.2333333333333334</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.03659678423347584</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.008642056457627239</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5066174053952723</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.9666207178331913</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1137,13 +2357,43 @@
         <v>0.03795140400061227</v>
       </c>
       <c r="C41" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6905080128565488</v>
       </c>
       <c r="D41" t="n">
+        <v>0.365121111499803</v>
+      </c>
+      <c r="E41" t="n">
         <v>0.3848487003494845</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
+        <v>0.608695652173914</v>
+      </c>
+      <c r="G41" t="n">
         <v>0.2222222222222222</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.04182036701615428</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.009821525220241753</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.4289422565245661</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.9617994349538268</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1154,13 +2404,43 @@
         <v>0.03581035434332955</v>
       </c>
       <c r="C42" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6902675646103456</v>
       </c>
       <c r="D42" t="n">
+        <v>0.2870689940010001</v>
+      </c>
+      <c r="E42" t="n">
         <v>0.4178493927210503</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
+        <v>0.5869565217391308</v>
+      </c>
+      <c r="G42" t="n">
         <v>0.2111111111111111</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.03432029120329187</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.008146373961368622</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5349905266530876</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.9685919911023991</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1171,13 +2451,43 @@
         <v>0.03636568588964095</v>
       </c>
       <c r="C43" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6900283425440544</v>
       </c>
       <c r="D43" t="n">
+        <v>0.3084604668140805</v>
+      </c>
+      <c r="E43" t="n">
         <v>0.428489511566028</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
+        <v>0.5652173913043494</v>
+      </c>
+      <c r="G43" t="n">
         <v>0.2000000000000001</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.03633301331455972</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.008605351896129307</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.5101022712614719</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.9667021880574344</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1188,13 +2498,43 @@
         <v>0.0355222522910116</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6857100982532944</v>
       </c>
       <c r="D44" t="n">
+        <v>0.3568740924512628</v>
+      </c>
+      <c r="E44" t="n">
         <v>0.4261328737485427</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
+        <v>0.5434782608695645</v>
+      </c>
+      <c r="G44" t="n">
         <v>0.1888888888888889</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.04139805749600963</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.009749052066034301</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.4545412938591608</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.9620265158749708</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1205,13 +2545,43 @@
         <v>0.03656735755130518</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6854868614747155</v>
       </c>
       <c r="D45" t="n">
+        <v>0.3956542356428442</v>
+      </c>
+      <c r="E45" t="n">
         <v>0.4155020158574161</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
+        <v>0.5217391304347831</v>
+      </c>
+      <c r="G45" t="n">
         <v>0.1777777777777778</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.04507370765849329</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.01058097639649286</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.3796449961608567</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.9586193262337169</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1222,13 +2592,43 @@
         <v>0.0384947761670606</v>
       </c>
       <c r="C46" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6852647428318778</v>
       </c>
       <c r="D46" t="n">
+        <v>0.4669763375236277</v>
+      </c>
+      <c r="E46" t="n">
         <v>0.4061135196396551</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
+        <v>0.5000000000000018</v>
+      </c>
+      <c r="G46" t="n">
         <v>0.1666666666666666</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.05186249271117359</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.012111267564526</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.2738033829246919</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.9523708961543608</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1239,13 +2639,43 @@
         <v>0.03326308231807668</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.5636766780412602</v>
       </c>
       <c r="D47" t="n">
+        <v>0.3517965485257501</v>
+      </c>
+      <c r="E47" t="n">
         <v>0.4160208787513432</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
+        <v>0.5000000000000018</v>
+      </c>
+      <c r="G47" t="n">
         <v>0.1666666666666666</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.04567246415740194</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.01072969958751978</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.4264502145385787</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.9579696750175393</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1256,13 +2686,43 @@
         <v>0.03227951134714781</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.5636565510819782</v>
       </c>
       <c r="D48" t="n">
+        <v>0.3153404854887927</v>
+      </c>
+      <c r="E48" t="n">
         <v>0.4055466490050586</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
+        <v>0.5000000000000018</v>
+      </c>
+      <c r="G48" t="n">
         <v>0.1555555555555556</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.04214719493986193</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.009945907482170925</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.4361074937639563</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.9611364394003525</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1273,13 +2733,43 @@
         <v>0.03413244746429219</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.5636363887268168</v>
       </c>
       <c r="D49" t="n">
+        <v>0.3835090108665934</v>
+      </c>
+      <c r="E49" t="n">
         <v>0.460114940962437</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
+        <v>0.5000000000000018</v>
+      </c>
+      <c r="G49" t="n">
         <v>0.1555555555555556</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.04863020497710598</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.01140740914381193</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.3291286649421136</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.9551682272165031</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1290,13 +2780,43 @@
         <v>0.03162754993789928</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3994742319136804</v>
+        <v>0.5885402550063165</v>
       </c>
       <c r="D50" t="n">
+        <v>0.301688022007051</v>
+      </c>
+      <c r="E50" t="n">
         <v>0.4595136860725234</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
+        <v>0.5000000000000018</v>
+      </c>
+      <c r="G50" t="n">
         <v>0.1555555555555556</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.03446560946723516</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.01043954985251491</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.3582333302100829</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.9607309983917958</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1307,13 +2827,43 @@
         <v>0.03310283846401325</v>
       </c>
       <c r="C51" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.5883525535260954</v>
       </c>
       <c r="D51" t="n">
+        <v>0.355364319723895</v>
+      </c>
+      <c r="E51" t="n">
         <v>0.4303554942755118</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
+        <v>0.5000000000000018</v>
+      </c>
+      <c r="G51" t="n">
         <v>0.1444444444444444</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.03965743202441785</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.0115999898153145</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.317139331932879</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.9559797406527168</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1324,13 +2874,43 @@
         <v>0.02928456788007129</v>
       </c>
       <c r="C52" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.5881648855109923</v>
       </c>
       <c r="D52" t="n">
+        <v>0.2137915772225884</v>
+      </c>
+      <c r="E52" t="n">
         <v>0.4029880319149987</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
+        <v>0.5000000000000018</v>
+      </c>
+      <c r="G52" t="n">
         <v>0.1444444444444444</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.02617232293318256</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.008570292677056068</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.527342817213182</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.9682764402574415</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1341,13 +2921,43 @@
         <v>0.03319749631791253</v>
       </c>
       <c r="C53" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6450947002079237</v>
       </c>
       <c r="D53" t="n">
+        <v>0.2784640376222127</v>
+      </c>
+      <c r="E53" t="n">
         <v>0.4000781402039732</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
+        <v>0.5000000000000018</v>
+      </c>
+      <c r="G53" t="n">
         <v>0.1444444444444444</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.02162288444407353</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.007545340124633826</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.5600276253743403</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.9724172516696103</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1358,13 +2968,43 @@
         <v>0.03554500960151944</v>
       </c>
       <c r="C54" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6450076135000956</v>
       </c>
       <c r="D54" t="n">
+        <v>0.365186762462164</v>
+      </c>
+      <c r="E54" t="n">
         <v>0.4178059022355854</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
+        <v>0.5000000000000018</v>
+      </c>
+      <c r="G54" t="n">
         <v>0.1444444444444444</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.02995961398427233</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.009411425367109896</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.4911291353516724</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.9647954030113071</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1375,13 +3015,43 @@
         <v>0.03497874195216746</v>
       </c>
       <c r="C55" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6449208126314959</v>
       </c>
       <c r="D55" t="n">
+        <v>0.3444334456696173</v>
+      </c>
+      <c r="E55" t="n">
         <v>0.4228337906692736</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
+        <v>0.5000000000000018</v>
+      </c>
+      <c r="G55" t="n">
         <v>0.1555555555555556</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.02801533982041699</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.008970997474582323</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.5104932049111612</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.9665581937920824</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1392,13 +3062,43 @@
         <v>0.03545693164152863</v>
       </c>
       <c r="C56" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6571561780126706</v>
       </c>
       <c r="D56" t="n">
+        <v>0.3800382072732229</v>
+      </c>
+      <c r="E56" t="n">
         <v>0.4286143267772131</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
+        <v>0.5217391304347831</v>
+      </c>
+      <c r="G56" t="n">
         <v>0.1555555555555556</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.03484721972631401</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.01049952602375412</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.3560972505717873</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.9603096985690595</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1409,13 +3109,43 @@
         <v>0.03403711403753597</v>
       </c>
       <c r="C57" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6569248185734881</v>
       </c>
       <c r="D57" t="n">
+        <v>0.3274618893340844</v>
+      </c>
+      <c r="E57" t="n">
         <v>0.4099229473111721</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
+        <v>0.5434782608695645</v>
+      </c>
+      <c r="G57" t="n">
         <v>0.1666666666666666</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.0298576478297594</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.009375941660989403</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.4669182200412889</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.9648524551104239</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1426,13 +3156,43 @@
         <v>0.03371927410403684</v>
       </c>
       <c r="C58" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6566948156762233</v>
       </c>
       <c r="D58" t="n">
+        <v>0.3155338684375559</v>
+      </c>
+      <c r="E58" t="n">
         <v>0.3983257049335499</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
+        <v>0.5434782608695645</v>
+      </c>
+      <c r="G58" t="n">
         <v>0.1666666666666666</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.02875599157329523</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.009124637848549083</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.5033182562553414</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.9658462222735239</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1443,13 +3203,43 @@
         <v>0.03552324765595462</v>
       </c>
       <c r="C59" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6814878321473204</v>
       </c>
       <c r="D59" t="n">
+        <v>0.3573354485084334</v>
+      </c>
+      <c r="E59" t="n">
         <v>0.4184096079689316</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
+        <v>0.5652173913043494</v>
+      </c>
+      <c r="G59" t="n">
         <v>0.1666666666666666</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.02656369693173561</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.008628676654331282</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.4901319569909405</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.9678357228058145</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1460,13 +3250,43 @@
         <v>0.0378736138613057</v>
       </c>
       <c r="C60" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6812892385935705</v>
       </c>
       <c r="D60" t="n">
+        <v>0.4444178634618813</v>
+      </c>
+      <c r="E60" t="n">
         <v>0.4218594366029582</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
+        <v>0.5652173913043494</v>
+      </c>
+      <c r="G60" t="n">
         <v>0.1666666666666666</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.03493726172028363</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.01050319098411145</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.4353786391004341</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.9601796615295174</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1477,13 +3297,43 @@
         <v>0.03597357835170418</v>
       </c>
       <c r="C61" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6810915647029353</v>
       </c>
       <c r="D61" t="n">
+        <v>0.3747180153087077</v>
+      </c>
+      <c r="E61" t="n">
         <v>0.4409136693949776</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
+        <v>0.5869565217391308</v>
+      </c>
+      <c r="G61" t="n">
         <v>0.1555555555555556</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.02831356486916725</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.009013099104359596</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.4986856164755484</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.9662146507041421</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1494,13 +3344,43 @@
         <v>0.02712496614971534</v>
       </c>
       <c r="C62" t="n">
-        <v>0.4464983394660264</v>
+        <v>0.6077510780603499</v>
       </c>
       <c r="D62" t="n">
+        <v>0.06614426074341792</v>
+      </c>
+      <c r="E62" t="n">
         <v>0.4582714175717195</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
+        <v>0.608695652173914</v>
+      </c>
+      <c r="G62" t="n">
         <v>0.1555555555555556</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.02365607504645681</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.006530561876074831</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.5700337409100718</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.9741675116419231</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1511,13 +3391,43 @@
         <v>0.02996446678484719</v>
       </c>
       <c r="C63" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6069152732243596</v>
       </c>
       <c r="D63" t="n">
+        <v>0.1696820447696286</v>
+      </c>
+      <c r="E63" t="n">
         <v>0.4135086104018541</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
+        <v>0.6521739130434767</v>
+      </c>
+      <c r="G63" t="n">
         <v>0.1555555555555556</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.03364516641706684</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.008773888407110794</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.454856946818932</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.9650207628940169</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1528,13 +3438,43 @@
         <v>0.03267981857703478</v>
       </c>
       <c r="C64" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.606081377812574</v>
       </c>
       <c r="D64" t="n">
+        <v>0.268639728644997</v>
+      </c>
+      <c r="E64" t="n">
         <v>0.4117269262586715</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
+        <v>0.6739130434782616</v>
+      </c>
+      <c r="G64" t="n">
         <v>0.1444444444444444</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.0431963854402257</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.01091896234560613</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.3578150554331625</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.9562735189784204</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1545,13 +3485,43 @@
         <v>0.03293734437352026</v>
       </c>
       <c r="C65" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6659203818302029</v>
       </c>
       <c r="D65" t="n">
+        <v>0.3007919496085423</v>
+      </c>
+      <c r="E65" t="n">
         <v>0.3880001164361369</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
+        <v>0.6739130434782616</v>
+      </c>
+      <c r="G65" t="n">
         <v>0.1333333333333333</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.03054971083307266</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.00808392752381617</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.4379823293781138</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.967792310613265</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1562,13 +3532,43 @@
         <v>0.03615879614672438</v>
       </c>
       <c r="C66" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6656474532644255</v>
       </c>
       <c r="D66" t="n">
+        <v>0.4193537047243646</v>
+      </c>
+      <c r="E66" t="n">
         <v>0.4246353953056968</v>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
+        <v>0.695652173913043</v>
+      </c>
+      <c r="G66" t="n">
         <v>0.1222222222222222</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.04191559210299946</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.01063608916917377</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.3433451879440547</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.9573885046215503</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1579,13 +3579,43 @@
         <v>0.03453736534779911</v>
       </c>
       <c r="C67" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6653762740917371</v>
       </c>
       <c r="D67" t="n">
+        <v>0.359286715984274</v>
+      </c>
+      <c r="E67" t="n">
         <v>0.434322805656113</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
+        <v>0.695652173913043</v>
+      </c>
+      <c r="G67" t="n">
         <v>0.1222222222222222</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.03619459306544462</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.009354797390650607</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.410549347079741</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.9625847141759466</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1596,13 +3626,43 @@
         <v>0.03680449454943904</v>
       </c>
       <c r="C68" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6108052691457725</v>
       </c>
       <c r="D68" t="n">
+        <v>0.3609751174097028</v>
+      </c>
+      <c r="E68" t="n">
         <v>0.4315402554739706</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
+        <v>0.695652173913043</v>
+      </c>
+      <c r="G68" t="n">
         <v>0.1111111111111111</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.03938072052436096</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.01007180221278017</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.3952852113377378</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.9596490326494385</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1613,13 +3673,43 @@
         <v>0.03403562924119721</v>
       </c>
       <c r="C69" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6107046894756808</v>
       </c>
       <c r="D69" t="n">
+        <v>0.2588600821823015</v>
+      </c>
+      <c r="E69" t="n">
         <v>0.4175455725120634</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
+        <v>0.695652173913043</v>
+      </c>
+      <c r="G69" t="n">
         <v>0.09999999999999998</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.02964042387633669</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.007888751801089217</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.5609150233935125</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.9685152302080455</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1630,13 +3720,43 @@
         <v>0.03222765409732174</v>
       </c>
       <c r="C70" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6106043627480843</v>
       </c>
       <c r="D70" t="n">
+        <v>0.1921873088065191</v>
+      </c>
+      <c r="E70" t="n">
         <v>0.3961997464733357</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
+        <v>0.6739130434782616</v>
+      </c>
+      <c r="G70" t="n">
         <v>0.09999999999999998</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.02329011971762302</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.00646623045719621</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.6199503001817661</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.9742869427779088</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1647,13 +3767,43 @@
         <v>0.03606019132108376</v>
       </c>
       <c r="C71" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.7299514110254813</v>
       </c>
       <c r="D71" t="n">
+        <v>0.2724477388486729</v>
+      </c>
+      <c r="E71" t="n">
         <v>0.4219456793996276</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
+        <v>0.6739130434782616</v>
+      </c>
+      <c r="G71" t="n">
         <v>0.09999999999999998</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.03369670364422944</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.008803098062370002</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.4163665091399184</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.9647592257847142</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -1664,13 +3814,43 @@
         <v>0.03579618272321475</v>
       </c>
       <c r="C72" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.7286534340006219</v>
       </c>
       <c r="D72" t="n">
+        <v>0.2629114470918967</v>
+      </c>
+      <c r="E72" t="n">
         <v>0.4259970485435868</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
+        <v>0.6739130434782616</v>
+      </c>
+      <c r="G72" t="n">
         <v>0.08888888888888891</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.0328175597995914</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.008608000632286773</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.5054531287823583</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.9655357433002423</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -1681,13 +3861,43 @@
         <v>0.03604473525659636</v>
       </c>
       <c r="C73" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.7273722964779641</v>
       </c>
       <c r="D73" t="n">
+        <v>0.2722774985411321</v>
+      </c>
+      <c r="E73" t="n">
         <v>0.4288206768453655</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
+        <v>0.6521739130434767</v>
+      </c>
+      <c r="G73" t="n">
         <v>0.08888888888888891</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.03374632409909763</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.008818492371797316</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.4790655403947179</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.9646616633608113</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1698,13 +3908,43 @@
         <v>0.03608578038130857</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5095802014560151</v>
+        <v>0.6726256934865391</v>
       </c>
       <c r="D74" t="n">
+        <v>0.2394981376242593</v>
+      </c>
+      <c r="E74" t="n">
         <v>0.4530483960276906</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
+        <v>0.6739130434782616</v>
+      </c>
+      <c r="G74" t="n">
         <v>0.07777777777777778</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.03172044374439296</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.00830362783723883</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.5579617292651852</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.9735329438710333</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1715,13 +3955,43 @@
         <v>0.03748966488852981</v>
       </c>
       <c r="C75" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6720945717346711</v>
       </c>
       <c r="D75" t="n">
+        <v>0.2921890593947356</v>
+      </c>
+      <c r="E75" t="n">
         <v>0.4089722219328146</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
+        <v>0.695652173913043</v>
+      </c>
+      <c r="G75" t="n">
         <v>0.06666666666666671</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.03677670650387045</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.009442098593244045</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.5115782435314746</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.9688438384149842</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -1732,13 +4002,43 @@
         <v>0.03878689554001617</v>
       </c>
       <c r="C76" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6715677231372505</v>
       </c>
       <c r="D76" t="n">
+        <v>0.3409304548199831</v>
+      </c>
+      <c r="E76" t="n">
         <v>0.400235019387052</v>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
+        <v>0.7173913043478279</v>
+      </c>
+      <c r="G76" t="n">
         <v>0.05555555555555558</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.04145504722483497</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.01049573479587036</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.4066752155894716</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.9645001110870208</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1749,13 +4049,43 @@
         <v>0.03478250920792273</v>
       </c>
       <c r="C77" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6929684557772315</v>
       </c>
       <c r="D77" t="n">
+        <v>0.3239505858138566</v>
+      </c>
+      <c r="E77" t="n">
         <v>0.4025961097940537</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
+        <v>0.7173913043478279</v>
+      </c>
+      <c r="G77" t="n">
         <v>0.04444444444444445</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.03887498238644771</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.009920902709260715</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.4864555798421895</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.9667848214319522</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -1766,13 +4096,43 @@
         <v>0.03484181756434301</v>
       </c>
       <c r="C78" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6923093939357932</v>
       </c>
       <c r="D78" t="n">
+        <v>0.3258426572192795</v>
+      </c>
+      <c r="E78" t="n">
         <v>0.4173334094012734</v>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
+        <v>0.7173913043478279</v>
+      </c>
+      <c r="G78" t="n">
         <v>0.03333333333333333</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.03906981401125535</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.009968571643973075</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.4990037387758953</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.9665362728472044</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -1783,13 +4143,43 @@
         <v>0.03580222519763746</v>
       </c>
       <c r="C79" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6916565582089855</v>
       </c>
       <c r="D79" t="n">
+        <v>0.3609753819082553</v>
+      </c>
+      <c r="E79" t="n">
         <v>0.4348838570878083</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
+        <v>0.695652173913043</v>
+      </c>
+      <c r="G79" t="n">
         <v>0.0222222222222222</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.04244411515024399</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.01072950800080202</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.443536424040789</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.9633848452105244</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1800,13 +4190,43 @@
         <v>0.03552342280236619</v>
       </c>
       <c r="C80" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6134261650884416</v>
       </c>
       <c r="D80" t="n">
+        <v>0.4003627981081537</v>
+      </c>
+      <c r="E80" t="n">
         <v>0.4282351178019025</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
+        <v>0.6521739130434767</v>
+      </c>
+      <c r="G80" t="n">
         <v>0.0222222222222222</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.04339089718759219</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.01094578627950307</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.4183183667114636</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.9624506699879065</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1817,13 +4237,43 @@
         <v>0.03569085668235908</v>
       </c>
       <c r="C81" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6133803587980832</v>
       </c>
       <c r="D81" t="n">
+        <v>0.4061471409045957</v>
+      </c>
+      <c r="E81" t="n">
         <v>0.4023491174910735</v>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
+        <v>0.6304347826086953</v>
+      </c>
+      <c r="G81" t="n">
         <v>0.01111111111111113</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.04395433292860844</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.01107601675296872</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.4596972479140294</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.9618671054426999</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -1834,13 +4284,43 @@
         <v>0.03386838045942106</v>
       </c>
       <c r="C82" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6133346676807166</v>
       </c>
       <c r="D82" t="n">
+        <v>0.3385362415028831</v>
+      </c>
+      <c r="E82" t="n">
         <v>0.4046837463010601</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
+        <v>0.6304347826086953</v>
+      </c>
+      <c r="G82" t="n">
         <v>0.0222222222222222</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.0374971691092478</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.009631134817096172</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.4715287686595205</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.9676953519512914</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -1851,13 +4331,43 @@
         <v>0.03206892966214181</v>
       </c>
       <c r="C83" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.5997668765486481</v>
       </c>
       <c r="D83" t="n">
+        <v>0.360359252587202</v>
+      </c>
+      <c r="E83" t="n">
         <v>0.416484612949904</v>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
+        <v>0.6521739130434767</v>
+      </c>
+      <c r="G83" t="n">
         <v>0.03333333333333333</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.03955305427260229</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.01009610959132948</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.4961603152117828</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.9657500705502127</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -1868,13 +4378,43 @@
         <v>0.03375422365380946</v>
       </c>
       <c r="C84" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.5997497909483016</v>
       </c>
       <c r="D84" t="n">
+        <v>0.4217405457937795</v>
+      </c>
+      <c r="E84" t="n">
         <v>0.4286253664214502</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
+        <v>0.6739130434782616</v>
+      </c>
+      <c r="G84" t="n">
         <v>0.03333333333333333</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.04543412575336577</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.0114192211369957</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.3415997683456339</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.9603119476597124</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -1885,13 +4425,43 @@
         <v>0.03402675427726067</v>
       </c>
       <c r="C85" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.5997327275786987</v>
       </c>
       <c r="D85" t="n">
+        <v>0.4310180516436334</v>
+      </c>
+      <c r="E85" t="n">
         <v>0.4435342049618699</v>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
+        <v>0.7173913043478279</v>
+      </c>
+      <c r="G85" t="n">
         <v>0.04444444444444445</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.04633118125304707</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.01162412892164028</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.3600564217250121</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.9594258489978714</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -1902,13 +4472,43 @@
         <v>0.0385970033367766</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0.6624227784426264</v>
       </c>
       <c r="D86" t="n">
+        <v>0.5245848160779144</v>
+      </c>
+      <c r="E86" t="n">
         <v>0.4708376284867886</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
+        <v>0.7391304347826093</v>
+      </c>
+      <c r="G86" t="n">
         <v>0.04444444444444445</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.04030030126284535</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.01111919799658424</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.3647174717258458</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.9580397579119233</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -1919,13 +4519,43 @@
         <v>0.03638481180619993</v>
       </c>
       <c r="C87" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6622835097265154</v>
       </c>
       <c r="D87" t="n">
+        <v>0.4432049920667271</v>
+      </c>
+      <c r="E87" t="n">
         <v>0.4015725194308818</v>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
+        <v>0.7826086956521756</v>
+      </c>
+      <c r="G87" t="n">
         <v>0.04444444444444445</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.03256499148063142</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.009381960547113762</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.5038792710841919</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.9650809838276905</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -1936,13 +4566,43 @@
         <v>0.03483728031224578</v>
       </c>
       <c r="C88" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6621448154880747</v>
       </c>
       <c r="D88" t="n">
+        <v>0.3863371152466519</v>
+      </c>
+      <c r="E88" t="n">
         <v>0.3954952649314133</v>
       </c>
-      <c r="E88" t="n">
+      <c r="F88" t="n">
+        <v>0.804347826086957</v>
+      </c>
+      <c r="G88" t="n">
         <v>0.04444444444444445</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.02717402720013111</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.008170689797067799</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.5913563343395413</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.9699815938231239</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -1953,13 +4613,43 @@
         <v>0.03307125414974425</v>
       </c>
       <c r="C89" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6790906074643925</v>
       </c>
       <c r="D89" t="n">
+        <v>0.1897031007459523</v>
+      </c>
+      <c r="E89" t="n">
         <v>0.4058774268442052</v>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
+        <v>0.804347826086957</v>
+      </c>
+      <c r="G89" t="n">
         <v>0.0222222222222222</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.02550849548175257</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.00779523178855609</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.5446092017417534</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.9714802479258705</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -1970,13 +4660,43 @@
         <v>0.03615779116202781</v>
       </c>
       <c r="C90" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6783771140281121</v>
       </c>
       <c r="D90" t="n">
+        <v>0.3035168050300812</v>
+      </c>
+      <c r="E90" t="n">
         <v>0.4183225499920211</v>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
+        <v>0.804347826086957</v>
+      </c>
+      <c r="G90" t="n">
         <v>0.01111111111111113</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.03643041608220898</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.01024377670815485</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.4097728513891348</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.9614828871109893</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -1987,12 +4707,42 @@
         <v>0.03610693730671939</v>
       </c>
       <c r="C91" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.6776699657536538</v>
       </c>
       <c r="D91" t="n">
+        <v>0.301602468795292</v>
+      </c>
+      <c r="E91" t="n">
         <v>0.4347158515106424</v>
       </c>
-      <c r="E91" t="n">
+      <c r="F91" t="n">
+        <v>0.804347826086957</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.03628255739230885</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.01020883468751778</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.38649153885636</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.9615954132079207</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2004,12 +4754,42 @@
         <v>0.03987335920424408</v>
       </c>
       <c r="C92" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.7358054763142617</v>
       </c>
       <c r="D92" t="n">
+        <v>0.453909463566688</v>
+      </c>
+      <c r="E92" t="n">
         <v>0.4273716585722045</v>
       </c>
-      <c r="E92" t="n">
+      <c r="F92" t="n">
+        <v>0.804347826086957</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.03292038334405387</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.00945277564528825</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.4792752537025191</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.9646437228756978</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2021,12 +4801,42 @@
         <v>0.04124068607495732</v>
       </c>
       <c r="C93" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.7353743518649108</v>
       </c>
       <c r="D93" t="n">
+        <v>0.5059670525745175</v>
+      </c>
+      <c r="E93" t="n">
         <v>0.4135286828749266</v>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
+        <v>0.804347826086957</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.03795090844564215</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.01057962792738526</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.4312301472581591</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.9600269790545484</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2038,12 +4848,42 @@
         <v>0.04073908460316843</v>
       </c>
       <c r="C94" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.7349457504264029</v>
       </c>
       <c r="D94" t="n">
+        <v>0.4890572635786471</v>
+      </c>
+      <c r="E94" t="n">
         <v>0.4017684758182157</v>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
+        <v>0.804347826086957</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.03638426439899582</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.01022642118639703</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.4565441355295847</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.9614356136961584</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2055,13 +4895,43 @@
         <v>0.03392052695522764</v>
       </c>
       <c r="C95" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.5502775039535941</v>
       </c>
       <c r="D95" t="n">
+        <v>0.2967176182918716</v>
+      </c>
+      <c r="E95" t="n">
         <v>0.4223657725137986</v>
       </c>
-      <c r="E95" t="n">
+      <c r="F95" t="n">
+        <v>0.8260869565217401</v>
+      </c>
+      <c r="G95" t="n">
         <v>0.01111111111111113</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.0304913627345199</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.008902633411689603</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.5099701165816628</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.9667957063588241</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2072,13 +4942,43 @@
         <v>0.03591592838013977</v>
       </c>
       <c r="C96" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.550244295693248</v>
       </c>
       <c r="D96" t="n">
+        <v>0.3702607549702372</v>
+      </c>
+      <c r="E96" t="n">
         <v>0.416888131446267</v>
       </c>
-      <c r="E96" t="n">
+      <c r="F96" t="n">
+        <v>0.8478260869565215</v>
+      </c>
+      <c r="G96" t="n">
         <v>0.01111111111111113</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.03755021542122519</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.01048457831604298</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.4682875810744797</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.9603266245918292</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2089,13 +4989,43 @@
         <v>0.0333025396366167</v>
       </c>
       <c r="C97" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.550211016624596</v>
       </c>
       <c r="D97" t="n">
+        <v>0.2738007062662491</v>
+      </c>
+      <c r="E97" t="n">
         <v>0.4585722359637836</v>
       </c>
-      <c r="E97" t="n">
+      <c r="F97" t="n">
+        <v>0.8260869565217401</v>
+      </c>
+      <c r="G97" t="n">
         <v>0.01111111111111113</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.02834795323803452</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.008418362342592996</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.4666626050633214</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.9687096497014823</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2106,12 +5036,42 @@
         <v>0.0279763808192387</v>
       </c>
       <c r="C98" t="n">
-        <v>0.7682719135864545</v>
+        <v>0.5703332112556937</v>
       </c>
       <c r="D98" t="n">
+        <v>0.4311810219701958</v>
+      </c>
+      <c r="E98" t="n">
         <v>0.4450576507383597</v>
       </c>
-      <c r="E98" t="n">
+      <c r="F98" t="n">
+        <v>0.804347826086957</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.05100427775124225</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.002668256251349228</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.4562957516250217</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.9664542322535288</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2123,13 +5083,43 @@
         <v>0.02893872473758137</v>
       </c>
       <c r="C99" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.5700697115479136</v>
       </c>
       <c r="D99" t="n">
+        <v>0.4659619266948793</v>
+      </c>
+      <c r="E99" t="n">
         <v>0.4277837735281101</v>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
+        <v>0.804347826086957</v>
+      </c>
+      <c r="G99" t="n">
         <v>0.01111111111111113</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.05420791192461057</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.003419967741558607</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.439059555797408</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.9633423732977117</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.585571012617276</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0.5883895131086142</v>
       </c>
     </row>
     <row r="100">
@@ -2140,13 +5130,43 @@
         <v>0.03330106005207043</v>
       </c>
       <c r="C100" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.5698057170323922</v>
       </c>
       <c r="D100" t="n">
+        <v>0.6261653606855647</v>
+      </c>
+      <c r="E100" t="n">
         <v>0.4195087941464034</v>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
+        <v>0.804347826086957</v>
+      </c>
+      <c r="G100" t="n">
         <v>0.03333333333333333</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.06941029279596625</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.006862899880262946</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.2262743642876197</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.9492734477251853</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.7634260757036557</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0.6310861423220974</v>
       </c>
     </row>
     <row r="101">
@@ -2157,13 +5177,43 @@
         <v>0.0126892074288105</v>
       </c>
       <c r="C101" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.04372969833245333</v>
       </c>
       <c r="D101" t="n">
         <v>1</v>
       </c>
       <c r="E101" t="n">
+        <v>1</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.6739130434782616</v>
+      </c>
+      <c r="G101" t="n">
         <v>0.9999999999999999</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.08342595574335449</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.01003891041389344</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.9362916290410209</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.8368650922031705</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0.9584269662921348</v>
       </c>
     </row>
     <row r="102">
@@ -2174,13 +5224,43 @@
         <v>0.003843692712000874</v>
       </c>
       <c r="C102" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.02244221839718807</v>
       </c>
       <c r="D102" t="n">
+        <v>0.6916303014099243</v>
+      </c>
+      <c r="E102" t="n">
         <v>0.4411090143978048</v>
       </c>
-      <c r="E102" t="n">
+      <c r="F102" t="n">
+        <v>0.4130434782608692</v>
+      </c>
+      <c r="G102" t="n">
         <v>0.7777777777777778</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.05399639720934937</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.003467345194899147</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.3522132825430839</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.9629923664167638</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.5143157554189582</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0.3419475655430712</v>
       </c>
     </row>
     <row r="103">
@@ -2191,13 +5271,43 @@
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>0.3542770127738924</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
+        <v>0.5686779408797478</v>
+      </c>
+      <c r="E103" t="n">
         <v>0.4227310434394611</v>
       </c>
-      <c r="E103" t="n">
+      <c r="F103" t="n">
+        <v>0.3260869565217384</v>
+      </c>
+      <c r="G103" t="n">
         <v>0.6555555555555556</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.04230158544592991</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.0008739018171765433</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.6138188260274466</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.9734976021779451</v>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.4037528307990941</v>
+      </c>
+      <c r="O103" t="n">
+        <v>0.4400749063670412</v>
       </c>
     </row>
     <row r="104">
@@ -2208,13 +5318,43 @@
         <v>0.05745525894670163</v>
       </c>
       <c r="C104" t="n">
-        <v>0.3542770127738924</v>
+        <v>1</v>
       </c>
       <c r="D104" t="n">
+        <v>0.00742891197192061</v>
+      </c>
+      <c r="E104" t="n">
         <v>0.4175290841492866</v>
       </c>
-      <c r="E104" t="n">
+      <c r="F104" t="n">
+        <v>0.3478260869565233</v>
+      </c>
+      <c r="G104" t="n">
         <v>0.5888888888888889</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.04493966851316458</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.001495384376193669</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.6223428498919439</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.9709144307873941</v>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.7343901649951472</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0.6153558052434457</v>
       </c>
     </row>
     <row r="105">
@@ -2225,13 +5365,43 @@
         <v>0.05669186474242989</v>
       </c>
       <c r="C105" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.9872365737209681</v>
       </c>
       <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="n">
         <v>0.3976394958525619</v>
       </c>
-      <c r="E105" t="n">
+      <c r="F105" t="n">
+        <v>0.304347826086957</v>
+      </c>
+      <c r="G105" t="n">
         <v>0.4888888888888888</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.04425496052608521</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.001370761711375043</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.568632768710604</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.9713683439790582</v>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.5329990294403105</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0.5910112359550561</v>
       </c>
     </row>
     <row r="106">
@@ -2242,13 +5412,43 @@
         <v>0.05770513927718935</v>
       </c>
       <c r="C106" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.9749553767386687</v>
       </c>
       <c r="D106" t="n">
+        <v>0.05712161067988444</v>
+      </c>
+      <c r="E106" t="n">
         <v>0.3594122334165107</v>
       </c>
-      <c r="E106" t="n">
+      <c r="F106" t="n">
+        <v>0.2826086956521738</v>
+      </c>
+      <c r="G106" t="n">
         <v>0.4111111111111111</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.0497481555911761</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.002631516520986462</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.4905468607131919</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.9661813748160424</v>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.4970074409576189</v>
+      </c>
+      <c r="O106" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="107">
@@ -2259,13 +5459,43 @@
         <v>0.03997464933921981</v>
       </c>
       <c r="C107" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.9553882995352039</v>
       </c>
       <c r="D107" t="n">
+        <v>0.4644687892719436</v>
+      </c>
+      <c r="E107" t="n">
         <v>0.3608090651028321</v>
       </c>
-      <c r="E107" t="n">
+      <c r="F107" t="n">
+        <v>0.2173913043478262</v>
+      </c>
+      <c r="G107" t="n">
         <v>0.3333333333333333</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.05644737296504435</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.004162219858974327</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.4091997879257664</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.9598946761274347</v>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.6494661921708185</v>
+      </c>
+      <c r="O107" t="n">
+        <v>0.6003745318352059</v>
       </c>
     </row>
     <row r="108">
@@ -2276,13 +5506,43 @@
         <v>0.04012553008907753</v>
       </c>
       <c r="C108" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.9510280276789345</v>
       </c>
       <c r="D108" t="n">
+        <v>0.4711001703682615</v>
+      </c>
+      <c r="E108" t="n">
         <v>0.3259287414719045</v>
       </c>
-      <c r="E108" t="n">
+      <c r="F108" t="n">
+        <v>0.1521739130434785</v>
+      </c>
+      <c r="G108" t="n">
         <v>0.2888888888888889</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.05696617714764891</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.004305740060082421</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.4466437111373774</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.9592553680439437</v>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.7394047233904886</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0.7074906367041198</v>
       </c>
     </row>
     <row r="109">
@@ -2293,13 +5553,43 @@
         <v>0.03465623578324948</v>
       </c>
       <c r="C109" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.9467770817159356</v>
       </c>
       <c r="D109" t="n">
+        <v>0.2703987434325121</v>
+      </c>
+      <c r="E109" t="n">
         <v>0.3688293225042922</v>
       </c>
-      <c r="E109" t="n">
+      <c r="F109" t="n">
+        <v>0.1304347826086971</v>
+      </c>
+      <c r="G109" t="n">
         <v>0.2666666666666667</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.03765580883637008</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.5321018246348093</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.9767310302830582</v>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.7824328696214817</v>
+      </c>
+      <c r="O109" t="n">
+        <v>0.9224719101123595</v>
       </c>
     </row>
     <row r="110">
@@ -2310,13 +5600,43 @@
         <v>0.03750768975565661</v>
       </c>
       <c r="C110" t="n">
-        <v>0.8005039589318341</v>
+        <v>0.7194796690012747</v>
       </c>
       <c r="D110" t="n">
+        <v>0.4916164643277057</v>
+      </c>
+      <c r="E110" t="n">
         <v>0.3980524221032412</v>
       </c>
-      <c r="E110" t="n">
+      <c r="F110" t="n">
+        <v>0.108695652173914</v>
+      </c>
+      <c r="G110" t="n">
         <v>0.2444444444444445</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.08549418087721744</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.01345023081377578</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.4943928131909315</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.9747526090468045</v>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.5905046910384989</v>
+      </c>
+      <c r="O110" t="n">
+        <v>0.6146067415730336</v>
       </c>
     </row>
     <row r="111">
@@ -2327,13 +5647,43 @@
         <v>0.03808419309568326</v>
       </c>
       <c r="C111" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.7177525857062572</v>
       </c>
       <c r="D111" t="n">
+        <v>0.5090697063186922</v>
+      </c>
+      <c r="E111" t="n">
         <v>0.4238198240994059</v>
       </c>
-      <c r="E111" t="n">
+      <c r="F111" t="n">
+        <v>0.08695652173913082</v>
+      </c>
+      <c r="G111" t="n">
         <v>0.2222222222222222</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.08661800291205503</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.01388564698115551</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.5855552089591999</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.9726478689356843</v>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.2588159171789065</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0.09063670411985014</v>
       </c>
     </row>
     <row r="112">
@@ -2344,13 +5694,43 @@
         <v>0.03466102190886926</v>
       </c>
       <c r="C112" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.7160480379175909</v>
       </c>
       <c r="D112" t="n">
+        <v>0.3790796407976857</v>
+      </c>
+      <c r="E112" t="n">
         <v>0.4064487342747109</v>
       </c>
-      <c r="E112" t="n">
+      <c r="F112" t="n">
+        <v>0.08695652173913082</v>
+      </c>
+      <c r="G112" t="n">
         <v>0.2111111111111111</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.07366279978849616</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.01115558865242912</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.6801679785195373</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.9834387148438586</v>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.5164186347460369</v>
+      </c>
+      <c r="O112" t="n">
+        <v>0.5468164794007491</v>
       </c>
     </row>
     <row r="113">
@@ -2361,13 +5741,43 @@
         <v>0.03346656047769393</v>
       </c>
       <c r="C113" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.5956180272246927</v>
       </c>
       <c r="D113" t="n">
+        <v>0.3183485134402015</v>
+      </c>
+      <c r="E113" t="n">
         <v>0.410925706232977</v>
       </c>
-      <c r="E113" t="n">
+      <c r="F113" t="n">
+        <v>0.08695652173913082</v>
+      </c>
+      <c r="G113" t="n">
         <v>0.1888888888888889</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.07532809692444503</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.01169911046622</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.681290936005489</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.9809057856832755</v>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.5767550954383694</v>
+      </c>
+      <c r="O113" t="n">
+        <v>0.5932584269662921</v>
       </c>
     </row>
     <row r="114">
@@ -2378,13 +5788,43 @@
         <v>0.03373911300127776</v>
       </c>
       <c r="C114" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.5945368662005577</v>
       </c>
       <c r="D114" t="n">
+        <v>0.3233307771630739</v>
+      </c>
+      <c r="E114" t="n">
         <v>0.425885019949622</v>
       </c>
-      <c r="E114" t="n">
+      <c r="F114" t="n">
+        <v>0.08695652173913082</v>
+      </c>
+      <c r="G114" t="n">
         <v>0.1666666666666666</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.07538283835951856</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.01187511543216083</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.7097890436050871</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.979874732390936</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.4752507279197671</v>
+      </c>
+      <c r="O114" t="n">
+        <v>0.5752808988764044</v>
       </c>
     </row>
     <row r="115">
@@ -2395,13 +5835,43 @@
         <v>0.03307105987624753</v>
       </c>
       <c r="C115" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.5934566601654753</v>
       </c>
       <c r="D115" t="n">
+        <v>0.2937148186402087</v>
+      </c>
+      <c r="E115" t="n">
         <v>0.404126995813321</v>
       </c>
-      <c r="E115" t="n">
+      <c r="F115" t="n">
+        <v>0.06521739130434767</v>
+      </c>
+      <c r="G115" t="n">
         <v>0.1555555555555556</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.07214900702964666</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.01130744661547712</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.7918698206865462</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.9818776518647443</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.526528631510838</v>
+      </c>
+      <c r="O115" t="n">
+        <v>0.5853932584269662</v>
       </c>
     </row>
     <row r="116">
@@ -2412,13 +5882,43 @@
         <v>0.03417156495713969</v>
       </c>
       <c r="C116" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.5533722254838567</v>
       </c>
       <c r="D116" t="n">
+        <v>0.5301026057625524</v>
+      </c>
+      <c r="E116" t="n">
         <v>0.3628228312107738</v>
       </c>
-      <c r="E116" t="n">
+      <c r="F116" t="n">
+        <v>0.04347826086956452</v>
+      </c>
+      <c r="G116" t="n">
         <v>0.1333333333333333</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.0756728661993667</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.01225025582265827</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.5933676549433829</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.9777341744656977</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.6592526690391459</v>
+      </c>
+      <c r="O116" t="n">
+        <v>0.5958801498127341</v>
       </c>
     </row>
     <row r="117">
@@ -2429,13 +5929,43 @@
         <v>0.03493686601279874</v>
       </c>
       <c r="C117" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.5533476255514858</v>
       </c>
       <c r="D117" t="n">
+        <v>0.5544417060269811</v>
+      </c>
+      <c r="E117" t="n">
         <v>0.370836308577887</v>
       </c>
-      <c r="E117" t="n">
+      <c r="F117" t="n">
+        <v>0.02173913043478315</v>
+      </c>
+      <c r="G117" t="n">
         <v>0.1111111111111111</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.0775467505622483</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.01281756093047062</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.5369842896455852</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.9751247411652975</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.8100129407958589</v>
+      </c>
+      <c r="O117" t="n">
+        <v>0.6677902621722847</v>
       </c>
     </row>
     <row r="118">
@@ -2446,13 +5976,43 @@
         <v>0.0359607845516161</v>
       </c>
       <c r="C118" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.5533229914212099</v>
       </c>
       <c r="D118" t="n">
+        <v>0.5884187575301723</v>
+      </c>
+      <c r="E118" t="n">
         <v>0.4765903462306808</v>
       </c>
-      <c r="E118" t="n">
+      <c r="F118" t="n">
+        <v>0.02173913043478315</v>
+      </c>
+      <c r="G118" t="n">
         <v>0.08888888888888891</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.08035942254284732</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.01359039903017989</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.5733056891296506</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.9716828912948247</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.6135554836622452</v>
+      </c>
+      <c r="O118" t="n">
+        <v>0.6764044943820224</v>
       </c>
     </row>
     <row r="119">
@@ -2463,13 +6023,43 @@
         <v>0.0383965826361498</v>
       </c>
       <c r="C119" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.584624177132349</v>
       </c>
       <c r="D119" t="n">
+        <v>0.4499795753144</v>
+      </c>
+      <c r="E119" t="n">
         <v>0.4208489854060508</v>
       </c>
-      <c r="E119" t="n">
+      <c r="F119" t="n">
+        <v>0.02173913043478315</v>
+      </c>
+      <c r="G119" t="n">
         <v>0.08888888888888891</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.0674535726428519</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.01083196322732866</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.7869501147721993</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.9826292188753706</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0.4500970559689421</v>
+      </c>
+      <c r="O119" t="n">
+        <v>0.4576779026217228</v>
       </c>
     </row>
     <row r="120">
@@ -2480,13 +6070,43 @@
         <v>0.03775238522145696</v>
       </c>
       <c r="C120" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.5846104373397097</v>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>0.4260257199636832</v>
       </c>
       <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.02173913043478315</v>
+      </c>
+      <c r="G120" t="n">
         <v>0.07777777777777778</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.06475765027259542</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.01035948811812768</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.7086646182002438</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.9842700119624287</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.541814946619217</v>
+      </c>
+      <c r="O120" t="n">
+        <v>0.597003745318352</v>
       </c>
     </row>
     <row r="121">
@@ -2497,13 +6117,43 @@
         <v>0.03854423330931259</v>
       </c>
       <c r="C121" t="n">
-        <v>0.3542770127738924</v>
+        <v>0.5845966996081668</v>
       </c>
       <c r="D121" t="n">
+        <v>0.4550511237861091</v>
+      </c>
+      <c r="E121" t="n">
         <v>0.4282984766898218</v>
       </c>
-      <c r="E121" t="n">
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="n">
         <v>0.07777777777777778</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.06714359788533371</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.01102270990873608</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.6505070675988471</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.981289234280188</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N121" t="n">
+        <v>1</v>
+      </c>
+      <c r="O121" t="n">
+        <v>0.7513108614232209</v>
       </c>
     </row>
     <row r="122">
@@ -2517,10 +6167,40 @@
         <v>0</v>
       </c>
       <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
         <v>0.5063311470717896</v>
       </c>
-      <c r="E122" t="n">
+      <c r="F122" t="n">
+        <v>0.06521739130434767</v>
+      </c>
+      <c r="G122" t="n">
         <v>0.07777777777777778</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.02139020790191946</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.01092306651703993</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.6833060359507753</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0.9807111507994541</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0.7191847298608864</v>
+      </c>
+      <c r="O122" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -2534,10 +6214,40 @@
         <v>0</v>
       </c>
       <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="n">
         <v>0.4158166906022783</v>
       </c>
-      <c r="E123" t="n">
+      <c r="F123" t="n">
+        <v>0.08695652173913082</v>
+      </c>
+      <c r="G123" t="n">
         <v>0.06666666666666671</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.01835909846389011</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.0101926603283562</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.7548506731960245</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0.9834275684871278</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0</v>
+      </c>
+      <c r="O123" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -2551,10 +6261,40 @@
         <v>0</v>
       </c>
       <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="n">
         <v>0.416632221224516</v>
       </c>
-      <c r="E124" t="n">
+      <c r="F124" t="n">
+        <v>0.1521739130434785</v>
+      </c>
+      <c r="G124" t="n">
         <v>0.04444444444444445</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.001993049556025077</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.006471476747073907</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.9618970566512602</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.9983337449731385</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0.4701552895503073</v>
+      </c>
+      <c r="O124" t="n">
+        <v>0.549438202247191</v>
       </c>
     </row>
     <row r="125">
@@ -2568,10 +6308,40 @@
         <v>0</v>
       </c>
       <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
         <v>0.4330113654175102</v>
       </c>
-      <c r="E125" t="n">
+      <c r="F125" t="n">
+        <v>0.1956521739130448</v>
+      </c>
+      <c r="G125" t="n">
         <v>0.04444444444444445</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.03627144592585164</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.01411317479169762</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.5362716851339961</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.9669481793166751</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0.57012293756066</v>
+      </c>
+      <c r="O125" t="n">
+        <v>0.5883895131086142</v>
       </c>
     </row>
     <row r="126">
@@ -2585,10 +6355,40 @@
         <v>0</v>
       </c>
       <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="n">
         <v>0.4629614033696666</v>
       </c>
-      <c r="E126" t="n">
+      <c r="F126" t="n">
+        <v>0.2608695652173907</v>
+      </c>
+      <c r="G126" t="n">
         <v>0.04444444444444445</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.01759609738408147</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.009875631601156499</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.8373213481418396</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.983965977254543</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0.601827887415076</v>
+      </c>
+      <c r="O126" t="n">
+        <v>0.5883895131086142</v>
       </c>
     </row>
     <row r="127">
@@ -2602,10 +6402,40 @@
         <v>0</v>
       </c>
       <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
         <v>0.4215274838954894</v>
       </c>
-      <c r="E127" t="n">
+      <c r="F127" t="n">
+        <v>0.2826086956521738</v>
+      </c>
+      <c r="G127" t="n">
         <v>0.0222222222222222</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.005881048998320586</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0.5964898091232611</v>
+      </c>
+      <c r="O127" t="n">
+        <v>0.5913857677902622</v>
       </c>
     </row>
     <row r="128">
@@ -2619,10 +6449,40 @@
         <v>0</v>
       </c>
       <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="n">
         <v>0.4370625938214815</v>
       </c>
-      <c r="E128" t="n">
+      <c r="F128" t="n">
+        <v>0.2608695652173907</v>
+      </c>
+      <c r="G128" t="n">
         <v>0.01111111111111113</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.04953225526993534</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.01694742925353489</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.3707296219929684</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0.9546659025765803</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0.6732449045616306</v>
+      </c>
+      <c r="O128" t="n">
+        <v>0.6052434456928839</v>
       </c>
     </row>
     <row r="129">
@@ -2636,10 +6496,40 @@
         <v>0</v>
       </c>
       <c r="D129" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" t="n">
         <v>0.4521839037967311</v>
       </c>
-      <c r="E129" t="n">
-        <v>0</v>
+      <c r="F129" t="n">
+        <v>0.2391304347826093</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.03288604702018281</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.01316755964474784</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.4356150255383813</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.9698313082519218</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0.5699611776124232</v>
+      </c>
+      <c r="O129" t="n">
+        <v>0.5857677902621723</v>
       </c>
     </row>
     <row r="130">
@@ -2653,10 +6543,40 @@
         <v>0</v>
       </c>
       <c r="D130" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" t="n">
         <v>0.3740423002959297</v>
       </c>
-      <c r="E130" t="n">
-        <v>0</v>
+      <c r="F130" t="n">
+        <v>0.2173913043478262</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.02934454914479595</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.01232848788602597</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.5617259035703712</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0.9730170184310524</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0.4969265609835005</v>
+      </c>
+      <c r="O130" t="n">
+        <v>0.5790262172284644</v>
       </c>
     </row>
     <row r="131">
@@ -2670,10 +6590,40 @@
         <v>0</v>
       </c>
       <c r="D131" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" t="n">
         <v>0.3383879082341598</v>
       </c>
-      <c r="E131" t="n">
-        <v>0</v>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.02775617099333738</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0.01192835230099058</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.5863861258720136</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0.9744176722955573</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0.5760271756713038</v>
+      </c>
+      <c r="O131" t="n">
+        <v>0.5853932584269662</v>
       </c>
     </row>
     <row r="132">
@@ -2687,10 +6637,40 @@
         <v>0</v>
       </c>
       <c r="D132" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" t="n">
         <v>0.4668929568463405</v>
       </c>
-      <c r="E132" t="n">
-        <v>0</v>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.04056504210726207</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0.01475895792683339</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.4252858022654106</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0.9626555518560601</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0.5876738919443546</v>
+      </c>
+      <c r="O132" t="n">
+        <v>0.5835205992509364</v>
       </c>
     </row>
     <row r="133">
@@ -2708,6 +6688,36 @@
       </c>
       <c r="E133" t="n">
         <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.04257447648889354</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0.01516744710070508</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.9607671626147806</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0.619459721772889</v>
+      </c>
+      <c r="O133" t="n">
+        <v>0.5883895131086142</v>
       </c>
     </row>
   </sheetData>
